--- a/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.478542319867643</v>
+        <v>2.478542319867586</v>
       </c>
       <c r="C2">
-        <v>1.20669376420841</v>
+        <v>1.206693764208751</v>
       </c>
       <c r="D2">
         <v>0.2085104007174152</v>
       </c>
       <c r="E2">
-        <v>1.453203150351044</v>
+        <v>1.453203150351058</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.746391192280583</v>
+        <v>2.746391192280569</v>
       </c>
       <c r="H2">
         <v>1.838119062021434</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8525691830812434</v>
+        <v>0.8525691830812292</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.124476877848821</v>
+        <v>2.124476877848736</v>
       </c>
       <c r="C3">
-        <v>1.03132821071577</v>
+        <v>1.031328210715799</v>
       </c>
       <c r="D3">
-        <v>0.1790555007525825</v>
+        <v>0.1790555007524546</v>
       </c>
       <c r="E3">
-        <v>1.23504597633459</v>
+        <v>1.235045976334519</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>2.415208702653999</v>
       </c>
       <c r="H3">
-        <v>1.636284589454107</v>
+        <v>1.636284589454092</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.7300825005082672</v>
+        <v>0.7300825005082814</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>1.911968171344284</v>
       </c>
       <c r="C4">
-        <v>0.9265265766205744</v>
+        <v>0.926526576620347</v>
       </c>
       <c r="D4">
-        <v>0.1614233759234054</v>
+        <v>0.1614233759232775</v>
       </c>
       <c r="E4">
-        <v>1.105738810688919</v>
+        <v>1.105738810688891</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>2.219151745973704</v>
       </c>
       <c r="H4">
-        <v>1.517079636020469</v>
+        <v>1.517079636020455</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6566712409808915</v>
+        <v>0.6566712409808844</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>1.826391817952725</v>
       </c>
       <c r="C5">
-        <v>0.884419881336072</v>
+        <v>0.8844198813361004</v>
       </c>
       <c r="D5">
-        <v>0.1543344735604393</v>
+        <v>0.1543344735606951</v>
       </c>
       <c r="E5">
-        <v>1.054008811704833</v>
+        <v>1.054008811704819</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.140830813257907</v>
+        <v>2.140830813257921</v>
       </c>
       <c r="H5">
-        <v>1.469526362812545</v>
+        <v>1.469526362812559</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6271312256854102</v>
+        <v>0.6271312256854245</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>0.8774611165592319</v>
       </c>
       <c r="D6">
-        <v>0.1531627079302638</v>
+        <v>0.1531627079300506</v>
       </c>
       <c r="E6">
-        <v>1.045471874060809</v>
+        <v>1.045471874060866</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.127913747801088</v>
+        <v>2.127913747801102</v>
       </c>
       <c r="H6">
         <v>1.461687590573291</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.910810172474328</v>
+        <v>1.910810172474186</v>
       </c>
       <c r="C7">
-        <v>0.9259564279744552</v>
+        <v>0.9259564279742278</v>
       </c>
       <c r="D7">
-        <v>0.1613274042874764</v>
+        <v>0.161327404287448</v>
       </c>
       <c r="E7">
-        <v>1.10503750816882</v>
+        <v>1.105037508168778</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.218089429942438</v>
+        <v>2.218089429942424</v>
       </c>
       <c r="H7">
-        <v>1.516434373100935</v>
+        <v>1.516434373100921</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6562714264248584</v>
+        <v>0.656271426424837</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.355312827892078</v>
+        <v>2.355312827892249</v>
       </c>
       <c r="C8">
-        <v>1.145552842697498</v>
+        <v>1.145552842697668</v>
       </c>
       <c r="D8">
-        <v>0.1982489446312883</v>
+        <v>0.1982489446315725</v>
       </c>
       <c r="E8">
-        <v>1.376886905991782</v>
+        <v>1.376886905991739</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.8099140838036263</v>
+        <v>0.809914083803605</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.276769932360594</v>
+        <v>3.27676993236048</v>
       </c>
       <c r="C9">
         <v>1.605483190234963</v>
       </c>
       <c r="D9">
-        <v>0.2751794673018111</v>
+        <v>0.2751794673016548</v>
       </c>
       <c r="E9">
-        <v>1.95789458605033</v>
+        <v>1.957894586050358</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.510876766560131</v>
+        <v>3.510876766560159</v>
       </c>
       <c r="H9">
-        <v>2.305791756067677</v>
+        <v>2.305791756067691</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.002792417247576</v>
+        <v>4.002792417247633</v>
       </c>
       <c r="C10">
-        <v>1.972359969290892</v>
+        <v>1.972359969290949</v>
       </c>
       <c r="D10">
-        <v>0.3360231781390581</v>
+        <v>0.3360231781392429</v>
       </c>
       <c r="E10">
-        <v>2.43336180715373</v>
+        <v>2.433361807153716</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.224546762128313</v>
+        <v>4.224546762128284</v>
       </c>
       <c r="H10">
         <v>2.744056840991078</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.382348614504281</v>
+        <v>1.382348614504295</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>4.349175128244724</v>
       </c>
       <c r="C11">
-        <v>2.14881919109763</v>
+        <v>2.148819191097573</v>
       </c>
       <c r="D11">
-        <v>0.3650904215081994</v>
+        <v>0.3650904215081709</v>
       </c>
       <c r="E11">
-        <v>2.666132666500985</v>
+        <v>2.666132666500957</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.503306592579492</v>
+        <v>1.503306592579506</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.483250106332775</v>
+        <v>4.483250106332605</v>
       </c>
       <c r="C12">
-        <v>2.217373006629884</v>
+        <v>2.217373006630055</v>
       </c>
       <c r="D12">
-        <v>0.3763453349801438</v>
+        <v>0.3763453349803711</v>
       </c>
       <c r="E12">
-        <v>2.757315699461543</v>
+        <v>2.757315699461557</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.705289744770226</v>
+        <v>4.705289744770283</v>
       </c>
       <c r="H12">
-        <v>3.039986728336345</v>
+        <v>3.039986728336359</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.550183686135995</v>
+        <v>1.550183686136009</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.45423436088015</v>
+        <v>4.454234360880037</v>
       </c>
       <c r="C13">
-        <v>2.202524985769742</v>
+        <v>2.202524985769514</v>
       </c>
       <c r="D13">
-        <v>0.3739094804435297</v>
+        <v>0.3739094804435581</v>
       </c>
       <c r="E13">
-        <v>2.737529982386889</v>
+        <v>2.737529982387002</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.540036062505308</v>
+        <v>1.540036062505337</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.360143383450861</v>
+        <v>4.360143383450918</v>
       </c>
       <c r="C14">
-        <v>2.154422061421826</v>
+        <v>2.154422061421315</v>
       </c>
       <c r="D14">
-        <v>0.3660110886479799</v>
+        <v>0.3660110886482499</v>
       </c>
       <c r="E14">
         <v>2.673568959389655</v>
@@ -883,16 +883,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.581502214303441</v>
+        <v>4.581502214303384</v>
       </c>
       <c r="H14">
-        <v>2.963739311343502</v>
+        <v>2.963739311343474</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.507140245382928</v>
+        <v>1.507140245382942</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>4.302908568415432</v>
       </c>
       <c r="C15">
-        <v>2.125195394172579</v>
+        <v>2.125195394172522</v>
       </c>
       <c r="D15">
-        <v>0.361206980238677</v>
+        <v>0.3612069802386628</v>
       </c>
       <c r="E15">
-        <v>2.634809639580595</v>
+        <v>2.634809639580709</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>4.524091552830157</v>
       </c>
       <c r="H15">
-        <v>2.928387871538973</v>
+        <v>2.928387871538959</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.487137762661547</v>
+        <v>1.487137762661533</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.980527017497877</v>
+        <v>3.980527017497707</v>
       </c>
       <c r="C16">
-        <v>1.961048980712917</v>
+        <v>1.961048980712064</v>
       </c>
       <c r="D16">
-        <v>0.3341553789277043</v>
+        <v>0.334155378927889</v>
       </c>
       <c r="E16">
-        <v>2.418534298328126</v>
+        <v>2.418534298328098</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.202425508640374</v>
+        <v>4.202425508640346</v>
       </c>
       <c r="H16">
         <v>2.730452267128726</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.787260804651339</v>
+        <v>3.787260804651282</v>
       </c>
       <c r="C17">
-        <v>1.863028157795497</v>
+        <v>1.863028157795554</v>
       </c>
       <c r="D17">
-        <v>0.3179467811992822</v>
+        <v>0.3179467811994954</v>
       </c>
       <c r="E17">
-        <v>2.290497773110545</v>
+        <v>2.29049777311053</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.011016462467921</v>
+        <v>4.011016462467893</v>
       </c>
       <c r="H17">
-        <v>2.612785606060584</v>
+        <v>2.612785606060541</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.677573281943239</v>
+        <v>3.67757328194341</v>
       </c>
       <c r="C18">
-        <v>1.807523755952502</v>
+        <v>1.807523755952218</v>
       </c>
       <c r="D18">
-        <v>0.308751353020412</v>
+        <v>0.3087513530204973</v>
       </c>
       <c r="E18">
-        <v>2.218356651132282</v>
+        <v>2.218356651132254</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.902874893920142</v>
+        <v>3.902874893920085</v>
       </c>
       <c r="H18">
-        <v>2.546347860388352</v>
+        <v>2.546347860388337</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.268974287847954</v>
+        <v>1.268974287847939</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.640672358553616</v>
+        <v>3.640672358553559</v>
       </c>
       <c r="C19">
-        <v>1.788871617780956</v>
+        <v>1.788871617781297</v>
       </c>
       <c r="D19">
-        <v>0.3056585153521354</v>
+        <v>0.3056585153523201</v>
       </c>
       <c r="E19">
-        <v>2.194171380156817</v>
+        <v>2.194171380156803</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.866575666223156</v>
+        <v>3.866575666223127</v>
       </c>
       <c r="H19">
-        <v>2.524054036335627</v>
+        <v>2.524054036335613</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.256122010188207</v>
+        <v>1.256122010188193</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.807677924668099</v>
+        <v>3.807677924668212</v>
       </c>
       <c r="C20">
-        <v>1.873369813835268</v>
+        <v>1.873369813835325</v>
       </c>
       <c r="D20">
         <v>0.319658722447528</v>
       </c>
       <c r="E20">
-        <v>2.303967750584789</v>
+        <v>2.303967750584803</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>4.031185516628113</v>
       </c>
       <c r="H20">
-        <v>2.625179999355467</v>
+        <v>2.625179999355481</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.314307638391725</v>
+        <v>1.314307638391753</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.387695843002462</v>
+        <v>4.387695843002348</v>
       </c>
       <c r="C21">
-        <v>2.168500736261478</v>
+        <v>2.168500736261535</v>
       </c>
       <c r="D21">
-        <v>0.3683238740228632</v>
+        <v>0.3683238740230621</v>
       </c>
       <c r="E21">
-        <v>2.692267142770291</v>
+        <v>2.69226714277039</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.60917129395429</v>
+        <v>4.609171293954262</v>
       </c>
       <c r="H21">
         <v>2.980779433248728</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.516771406108916</v>
+        <v>1.516771406108887</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.784107415416486</v>
+        <v>4.784107415416656</v>
       </c>
       <c r="C22">
-        <v>2.371722323897984</v>
+        <v>2.371722323897927</v>
       </c>
       <c r="D22">
-        <v>0.4016048212872931</v>
+        <v>0.401604821287151</v>
       </c>
       <c r="E22">
         <v>2.964212281583059</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.00951525955972</v>
+        <v>5.009515259559691</v>
       </c>
       <c r="H22">
-        <v>3.2275050071176</v>
+        <v>3.227505007117557</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.655492165520812</v>
+        <v>1.655492165520798</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.570712845073786</v>
+        <v>4.570712845073558</v>
       </c>
       <c r="C23">
-        <v>2.262169939968146</v>
+        <v>2.262169939967805</v>
       </c>
       <c r="D23">
-        <v>0.3836881336400921</v>
+        <v>0.3836881336404758</v>
       </c>
       <c r="E23">
-        <v>2.817133213903631</v>
+        <v>2.817133213903659</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.793484364642211</v>
+        <v>4.793484364642183</v>
       </c>
       <c r="H23">
-        <v>3.094329551897275</v>
+        <v>3.094329551897246</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.580781093149866</v>
+        <v>1.580781093149838</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.798442952449079</v>
+        <v>3.798442952449136</v>
       </c>
       <c r="C24">
-        <v>1.86869173215041</v>
+        <v>1.868691732149841</v>
       </c>
       <c r="D24">
-        <v>0.3188843738174398</v>
+        <v>0.3188843738172267</v>
       </c>
       <c r="E24">
         <v>2.297873446580681</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.022061215555254</v>
+        <v>4.022061215555226</v>
       </c>
       <c r="H24">
-        <v>2.619572757152966</v>
+        <v>2.619572757152923</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.311088848457402</v>
+        <v>1.311088848457388</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>3.020444421633329</v>
       </c>
       <c r="C25">
-        <v>1.476905782070673</v>
+        <v>1.476905782070105</v>
       </c>
       <c r="D25">
-        <v>0.253738467521373</v>
+        <v>0.2537384675213872</v>
       </c>
       <c r="E25">
-        <v>1.793836693457393</v>
+        <v>1.793836693457408</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.26291453466898</v>
+        <v>3.262914534669008</v>
       </c>
       <c r="H25">
         <v>2.153868494015029</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.04045597883875</v>
+        <v>1.040455978838779</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.478542319867586</v>
+        <v>2.478542319867643</v>
       </c>
       <c r="C2">
-        <v>1.206693764208751</v>
+        <v>1.20669376420841</v>
       </c>
       <c r="D2">
         <v>0.2085104007174152</v>
       </c>
       <c r="E2">
-        <v>1.453203150351058</v>
+        <v>1.453203150351044</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.746391192280569</v>
+        <v>2.746391192280583</v>
       </c>
       <c r="H2">
         <v>1.838119062021434</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8525691830812292</v>
+        <v>0.8525691830812434</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.124476877848736</v>
+        <v>2.124476877848821</v>
       </c>
       <c r="C3">
-        <v>1.031328210715799</v>
+        <v>1.03132821071577</v>
       </c>
       <c r="D3">
-        <v>0.1790555007524546</v>
+        <v>0.1790555007525825</v>
       </c>
       <c r="E3">
-        <v>1.235045976334519</v>
+        <v>1.23504597633459</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>2.415208702653999</v>
       </c>
       <c r="H3">
-        <v>1.636284589454092</v>
+        <v>1.636284589454107</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.7300825005082814</v>
+        <v>0.7300825005082672</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>1.911968171344284</v>
       </c>
       <c r="C4">
-        <v>0.926526576620347</v>
+        <v>0.9265265766205744</v>
       </c>
       <c r="D4">
-        <v>0.1614233759232775</v>
+        <v>0.1614233759234054</v>
       </c>
       <c r="E4">
-        <v>1.105738810688891</v>
+        <v>1.105738810688919</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>2.219151745973704</v>
       </c>
       <c r="H4">
-        <v>1.517079636020455</v>
+        <v>1.517079636020469</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6566712409808844</v>
+        <v>0.6566712409808915</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>1.826391817952725</v>
       </c>
       <c r="C5">
-        <v>0.8844198813361004</v>
+        <v>0.884419881336072</v>
       </c>
       <c r="D5">
-        <v>0.1543344735606951</v>
+        <v>0.1543344735604393</v>
       </c>
       <c r="E5">
-        <v>1.054008811704819</v>
+        <v>1.054008811704833</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.140830813257921</v>
+        <v>2.140830813257907</v>
       </c>
       <c r="H5">
-        <v>1.469526362812559</v>
+        <v>1.469526362812545</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6271312256854245</v>
+        <v>0.6271312256854102</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>0.8774611165592319</v>
       </c>
       <c r="D6">
-        <v>0.1531627079300506</v>
+        <v>0.1531627079302638</v>
       </c>
       <c r="E6">
-        <v>1.045471874060866</v>
+        <v>1.045471874060809</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.127913747801102</v>
+        <v>2.127913747801088</v>
       </c>
       <c r="H6">
         <v>1.461687590573291</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.910810172474186</v>
+        <v>1.910810172474328</v>
       </c>
       <c r="C7">
-        <v>0.9259564279742278</v>
+        <v>0.9259564279744552</v>
       </c>
       <c r="D7">
-        <v>0.161327404287448</v>
+        <v>0.1613274042874764</v>
       </c>
       <c r="E7">
-        <v>1.105037508168778</v>
+        <v>1.10503750816882</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.218089429942424</v>
+        <v>2.218089429942438</v>
       </c>
       <c r="H7">
-        <v>1.516434373100921</v>
+        <v>1.516434373100935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.656271426424837</v>
+        <v>0.6562714264248584</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.355312827892249</v>
+        <v>2.355312827892078</v>
       </c>
       <c r="C8">
-        <v>1.145552842697668</v>
+        <v>1.145552842697498</v>
       </c>
       <c r="D8">
-        <v>0.1982489446315725</v>
+        <v>0.1982489446312883</v>
       </c>
       <c r="E8">
-        <v>1.376886905991739</v>
+        <v>1.376886905991782</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.809914083803605</v>
+        <v>0.8099140838036263</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.27676993236048</v>
+        <v>3.276769932360594</v>
       </c>
       <c r="C9">
         <v>1.605483190234963</v>
       </c>
       <c r="D9">
-        <v>0.2751794673016548</v>
+        <v>0.2751794673018111</v>
       </c>
       <c r="E9">
-        <v>1.957894586050358</v>
+        <v>1.95789458605033</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.510876766560159</v>
+        <v>3.510876766560131</v>
       </c>
       <c r="H9">
-        <v>2.305791756067691</v>
+        <v>2.305791756067677</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.002792417247633</v>
+        <v>4.002792417247576</v>
       </c>
       <c r="C10">
-        <v>1.972359969290949</v>
+        <v>1.972359969290892</v>
       </c>
       <c r="D10">
-        <v>0.3360231781392429</v>
+        <v>0.3360231781390581</v>
       </c>
       <c r="E10">
-        <v>2.433361807153716</v>
+        <v>2.43336180715373</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.224546762128284</v>
+        <v>4.224546762128313</v>
       </c>
       <c r="H10">
         <v>2.744056840991078</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.382348614504295</v>
+        <v>1.382348614504281</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>4.349175128244724</v>
       </c>
       <c r="C11">
-        <v>2.148819191097573</v>
+        <v>2.14881919109763</v>
       </c>
       <c r="D11">
-        <v>0.3650904215081709</v>
+        <v>0.3650904215081994</v>
       </c>
       <c r="E11">
-        <v>2.666132666500957</v>
+        <v>2.666132666500985</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.503306592579506</v>
+        <v>1.503306592579492</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.483250106332605</v>
+        <v>4.483250106332775</v>
       </c>
       <c r="C12">
-        <v>2.217373006630055</v>
+        <v>2.217373006629884</v>
       </c>
       <c r="D12">
-        <v>0.3763453349803711</v>
+        <v>0.3763453349801438</v>
       </c>
       <c r="E12">
-        <v>2.757315699461557</v>
+        <v>2.757315699461543</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.705289744770283</v>
+        <v>4.705289744770226</v>
       </c>
       <c r="H12">
-        <v>3.039986728336359</v>
+        <v>3.039986728336345</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.550183686136009</v>
+        <v>1.550183686135995</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.454234360880037</v>
+        <v>4.45423436088015</v>
       </c>
       <c r="C13">
-        <v>2.202524985769514</v>
+        <v>2.202524985769742</v>
       </c>
       <c r="D13">
-        <v>0.3739094804435581</v>
+        <v>0.3739094804435297</v>
       </c>
       <c r="E13">
-        <v>2.737529982387002</v>
+        <v>2.737529982386889</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.540036062505337</v>
+        <v>1.540036062505308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.360143383450918</v>
+        <v>4.360143383450861</v>
       </c>
       <c r="C14">
-        <v>2.154422061421315</v>
+        <v>2.154422061421826</v>
       </c>
       <c r="D14">
-        <v>0.3660110886482499</v>
+        <v>0.3660110886479799</v>
       </c>
       <c r="E14">
         <v>2.673568959389655</v>
@@ -883,16 +883,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.581502214303384</v>
+        <v>4.581502214303441</v>
       </c>
       <c r="H14">
-        <v>2.963739311343474</v>
+        <v>2.963739311343502</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.507140245382942</v>
+        <v>1.507140245382928</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>4.302908568415432</v>
       </c>
       <c r="C15">
-        <v>2.125195394172522</v>
+        <v>2.125195394172579</v>
       </c>
       <c r="D15">
-        <v>0.3612069802386628</v>
+        <v>0.361206980238677</v>
       </c>
       <c r="E15">
-        <v>2.634809639580709</v>
+        <v>2.634809639580595</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>4.524091552830157</v>
       </c>
       <c r="H15">
-        <v>2.928387871538959</v>
+        <v>2.928387871538973</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.487137762661533</v>
+        <v>1.487137762661547</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.980527017497707</v>
+        <v>3.980527017497877</v>
       </c>
       <c r="C16">
-        <v>1.961048980712064</v>
+        <v>1.961048980712917</v>
       </c>
       <c r="D16">
-        <v>0.334155378927889</v>
+        <v>0.3341553789277043</v>
       </c>
       <c r="E16">
-        <v>2.418534298328098</v>
+        <v>2.418534298328126</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.202425508640346</v>
+        <v>4.202425508640374</v>
       </c>
       <c r="H16">
         <v>2.730452267128726</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.787260804651282</v>
+        <v>3.787260804651339</v>
       </c>
       <c r="C17">
-        <v>1.863028157795554</v>
+        <v>1.863028157795497</v>
       </c>
       <c r="D17">
-        <v>0.3179467811994954</v>
+        <v>0.3179467811992822</v>
       </c>
       <c r="E17">
-        <v>2.29049777311053</v>
+        <v>2.290497773110545</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.011016462467893</v>
+        <v>4.011016462467921</v>
       </c>
       <c r="H17">
-        <v>2.612785606060541</v>
+        <v>2.612785606060584</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.67757328194341</v>
+        <v>3.677573281943239</v>
       </c>
       <c r="C18">
-        <v>1.807523755952218</v>
+        <v>1.807523755952502</v>
       </c>
       <c r="D18">
-        <v>0.3087513530204973</v>
+        <v>0.308751353020412</v>
       </c>
       <c r="E18">
-        <v>2.218356651132254</v>
+        <v>2.218356651132282</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.902874893920085</v>
+        <v>3.902874893920142</v>
       </c>
       <c r="H18">
-        <v>2.546347860388337</v>
+        <v>2.546347860388352</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.268974287847939</v>
+        <v>1.268974287847954</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.640672358553559</v>
+        <v>3.640672358553616</v>
       </c>
       <c r="C19">
-        <v>1.788871617781297</v>
+        <v>1.788871617780956</v>
       </c>
       <c r="D19">
-        <v>0.3056585153523201</v>
+        <v>0.3056585153521354</v>
       </c>
       <c r="E19">
-        <v>2.194171380156803</v>
+        <v>2.194171380156817</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.866575666223127</v>
+        <v>3.866575666223156</v>
       </c>
       <c r="H19">
-        <v>2.524054036335613</v>
+        <v>2.524054036335627</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.256122010188193</v>
+        <v>1.256122010188207</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.807677924668212</v>
+        <v>3.807677924668099</v>
       </c>
       <c r="C20">
-        <v>1.873369813835325</v>
+        <v>1.873369813835268</v>
       </c>
       <c r="D20">
         <v>0.319658722447528</v>
       </c>
       <c r="E20">
-        <v>2.303967750584803</v>
+        <v>2.303967750584789</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>4.031185516628113</v>
       </c>
       <c r="H20">
-        <v>2.625179999355481</v>
+        <v>2.625179999355467</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.314307638391753</v>
+        <v>1.314307638391725</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.387695843002348</v>
+        <v>4.387695843002462</v>
       </c>
       <c r="C21">
-        <v>2.168500736261535</v>
+        <v>2.168500736261478</v>
       </c>
       <c r="D21">
-        <v>0.3683238740230621</v>
+        <v>0.3683238740228632</v>
       </c>
       <c r="E21">
-        <v>2.69226714277039</v>
+        <v>2.692267142770291</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.609171293954262</v>
+        <v>4.60917129395429</v>
       </c>
       <c r="H21">
         <v>2.980779433248728</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.516771406108887</v>
+        <v>1.516771406108916</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.784107415416656</v>
+        <v>4.784107415416486</v>
       </c>
       <c r="C22">
-        <v>2.371722323897927</v>
+        <v>2.371722323897984</v>
       </c>
       <c r="D22">
-        <v>0.401604821287151</v>
+        <v>0.4016048212872931</v>
       </c>
       <c r="E22">
         <v>2.964212281583059</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.009515259559691</v>
+        <v>5.00951525955972</v>
       </c>
       <c r="H22">
-        <v>3.227505007117557</v>
+        <v>3.2275050071176</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.655492165520798</v>
+        <v>1.655492165520812</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.570712845073558</v>
+        <v>4.570712845073786</v>
       </c>
       <c r="C23">
-        <v>2.262169939967805</v>
+        <v>2.262169939968146</v>
       </c>
       <c r="D23">
-        <v>0.3836881336404758</v>
+        <v>0.3836881336400921</v>
       </c>
       <c r="E23">
-        <v>2.817133213903659</v>
+        <v>2.817133213903631</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.793484364642183</v>
+        <v>4.793484364642211</v>
       </c>
       <c r="H23">
-        <v>3.094329551897246</v>
+        <v>3.094329551897275</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.580781093149838</v>
+        <v>1.580781093149866</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.798442952449136</v>
+        <v>3.798442952449079</v>
       </c>
       <c r="C24">
-        <v>1.868691732149841</v>
+        <v>1.86869173215041</v>
       </c>
       <c r="D24">
-        <v>0.3188843738172267</v>
+        <v>0.3188843738174398</v>
       </c>
       <c r="E24">
         <v>2.297873446580681</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.022061215555226</v>
+        <v>4.022061215555254</v>
       </c>
       <c r="H24">
-        <v>2.619572757152923</v>
+        <v>2.619572757152966</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.311088848457388</v>
+        <v>1.311088848457402</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>3.020444421633329</v>
       </c>
       <c r="C25">
-        <v>1.476905782070105</v>
+        <v>1.476905782070673</v>
       </c>
       <c r="D25">
-        <v>0.2537384675213872</v>
+        <v>0.253738467521373</v>
       </c>
       <c r="E25">
-        <v>1.793836693457408</v>
+        <v>1.793836693457393</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.262914534669008</v>
+        <v>3.26291453466898</v>
       </c>
       <c r="H25">
         <v>2.153868494015029</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.040455978838779</v>
+        <v>1.04045597883875</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.478542319867643</v>
+        <v>2.478363282234852</v>
       </c>
       <c r="C2">
-        <v>1.20669376420841</v>
+        <v>1.20546645349242</v>
       </c>
       <c r="D2">
-        <v>0.2085104007174152</v>
+        <v>0.2084977747559549</v>
       </c>
       <c r="E2">
-        <v>1.453203150351044</v>
+        <v>1.453104223919226</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.746391192280583</v>
+        <v>0.8951660315972703</v>
       </c>
       <c r="H2">
-        <v>1.838119062021434</v>
+        <v>1.846253518883586</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.83267873462178</v>
       </c>
       <c r="J2">
-        <v>0.8525691830812434</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8522408856872516</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.124476877848821</v>
+        <v>2.12439261352489</v>
       </c>
       <c r="C3">
-        <v>1.03132821071577</v>
+        <v>1.030299317098837</v>
       </c>
       <c r="D3">
-        <v>0.1790555007525825</v>
+        <v>0.1790475080571667</v>
       </c>
       <c r="E3">
-        <v>1.23504597633459</v>
+        <v>1.234984131007494</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.415208702653999</v>
+        <v>0.7814787933854177</v>
       </c>
       <c r="H3">
-        <v>1.636284589454107</v>
+        <v>1.630021619854034</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.631532164317477</v>
       </c>
       <c r="J3">
-        <v>0.7300825005082672</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.729822280688559</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.911968171344284</v>
+        <v>1.911930757048395</v>
       </c>
       <c r="C4">
-        <v>0.9265265766205744</v>
+        <v>0.9256122289460791</v>
       </c>
       <c r="D4">
-        <v>0.1614233759234054</v>
+        <v>0.161417692734517</v>
       </c>
       <c r="E4">
-        <v>1.105738810688919</v>
+        <v>1.10569510598576</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.219151745973704</v>
+        <v>0.7140813007182629</v>
       </c>
       <c r="H4">
-        <v>1.517079636020469</v>
+        <v>1.502115556075495</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.512738476762067</v>
       </c>
       <c r="J4">
-        <v>0.6566712409808915</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6564485290494915</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.826391817952725</v>
+        <v>1.826371110351147</v>
       </c>
       <c r="C5">
-        <v>0.884419881336072</v>
+        <v>0.8835507031492114</v>
       </c>
       <c r="D5">
-        <v>0.1543344735604393</v>
+        <v>0.1543296227496569</v>
       </c>
       <c r="E5">
-        <v>1.054008811704833</v>
+        <v>1.053971586612704</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.140830813257907</v>
+        <v>0.6871337570505318</v>
       </c>
       <c r="H5">
-        <v>1.469526362812545</v>
+        <v>1.451044603651923</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.465350543179255</v>
       </c>
       <c r="J5">
-        <v>0.6271312256854102</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6269229012140656</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.812238137601696</v>
+        <v>1.812220072276062</v>
       </c>
       <c r="C6">
-        <v>0.8774611165592319</v>
+        <v>0.8765993560456309</v>
       </c>
       <c r="D6">
-        <v>0.1531627079302638</v>
+        <v>0.153157989433268</v>
       </c>
       <c r="E6">
-        <v>1.045471874060809</v>
+        <v>1.045435676080814</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.127913747801088</v>
+        <v>0.6826880266743132</v>
       </c>
       <c r="H6">
-        <v>1.461687590573291</v>
+        <v>1.442623238609812</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.457539103557068</v>
       </c>
       <c r="J6">
-        <v>0.6222467763696571</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6220407914889208</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.910810172474328</v>
+        <v>1.910772992587027</v>
       </c>
       <c r="C7">
-        <v>0.9259564279744552</v>
+        <v>0.9250426951923885</v>
       </c>
       <c r="D7">
-        <v>0.1613274042874764</v>
+        <v>0.1613217327339385</v>
       </c>
       <c r="E7">
-        <v>1.10503750816882</v>
+        <v>1.104993894256154</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.218089429942438</v>
+        <v>0.7137158897325548</v>
       </c>
       <c r="H7">
-        <v>1.516434373100935</v>
+        <v>1.501422747088668</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.512095452144408</v>
       </c>
       <c r="J7">
-        <v>0.6562714264248584</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6560489119421291</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.355312827892078</v>
+        <v>2.355169129200306</v>
       </c>
       <c r="C8">
-        <v>1.145552842697498</v>
+        <v>1.144395669591006</v>
       </c>
       <c r="D8">
-        <v>0.1982489446312883</v>
+        <v>0.1982380444882779</v>
       </c>
       <c r="E8">
-        <v>1.376886905991782</v>
+        <v>1.376801895315097</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.630519702362236</v>
+        <v>0.8554107301483356</v>
       </c>
       <c r="H8">
-        <v>1.767441307910559</v>
+        <v>1.770578232172554</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.76224082605124</v>
       </c>
       <c r="J8">
-        <v>0.8099140838036263</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8096102700431871</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.276769932360594</v>
+        <v>3.276300996752582</v>
       </c>
       <c r="C9">
-        <v>1.605483190234963</v>
+        <v>1.603772721132657</v>
       </c>
       <c r="D9">
-        <v>0.2751794673018111</v>
+        <v>0.2751525744494785</v>
       </c>
       <c r="E9">
-        <v>1.95789458605033</v>
+        <v>1.957676394860812</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.510876766560131</v>
+        <v>1.157019413172662</v>
       </c>
       <c r="H9">
-        <v>2.305791756067677</v>
+        <v>2.345995059396216</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.298783939942638</v>
       </c>
       <c r="J9">
-        <v>1.129504848796842</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.128997293479614</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.002792417247576</v>
+        <v>4.00196508101709</v>
       </c>
       <c r="C10">
-        <v>1.972359969290892</v>
+        <v>1.970163576704408</v>
       </c>
       <c r="D10">
-        <v>0.3360231781390581</v>
+        <v>0.3359782265821565</v>
       </c>
       <c r="E10">
-        <v>2.43336180715373</v>
+        <v>2.43298323071906</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.224546762128313</v>
+        <v>1.40094745849467</v>
       </c>
       <c r="H10">
-        <v>2.744056840991078</v>
+        <v>2.813047449339194</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.735596486186168</v>
       </c>
       <c r="J10">
-        <v>1.382348614504281</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.381645524452878</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.349175128244724</v>
+        <v>4.348142948425391</v>
       </c>
       <c r="C11">
-        <v>2.14881919109763</v>
+        <v>2.146373747393397</v>
       </c>
       <c r="D11">
-        <v>0.3650904215081994</v>
+        <v>0.365034941679852</v>
       </c>
       <c r="E11">
-        <v>2.666132666500985</v>
+        <v>2.665656271085311</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.570493304466169</v>
+        <v>1.519053157553969</v>
       </c>
       <c r="H11">
-        <v>2.956959874632389</v>
+        <v>3.039581285641731</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.947795082218732</v>
       </c>
       <c r="J11">
-        <v>1.503306592579492</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.502498457043302</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.483250106332775</v>
+        <v>4.482132437689415</v>
       </c>
       <c r="C12">
-        <v>2.217373006629884</v>
+        <v>2.214827941926444</v>
       </c>
       <c r="D12">
-        <v>0.3763453349801438</v>
+        <v>0.3762854201492303</v>
       </c>
       <c r="E12">
-        <v>2.757315699461543</v>
+        <v>2.756797204683465</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.705289744770226</v>
+        <v>1.565051712951913</v>
       </c>
       <c r="H12">
-        <v>3.039986728336345</v>
+        <v>3.127868665932425</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.030546979140823</v>
       </c>
       <c r="J12">
-        <v>1.550183686135995</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.549332721495531</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.45423436088015</v>
+        <v>4.453135493521529</v>
       </c>
       <c r="C13">
-        <v>2.202524985769742</v>
+        <v>2.200001637634273</v>
       </c>
       <c r="D13">
-        <v>0.3739094804435297</v>
+        <v>0.3738505429964079</v>
       </c>
       <c r="E13">
-        <v>2.737529982386889</v>
+        <v>2.737020809982567</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.676076566420591</v>
+        <v>1.555083813412409</v>
       </c>
       <c r="H13">
-        <v>3.021989912885701</v>
+        <v>3.108734094461227</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.012609782502139</v>
       </c>
       <c r="J13">
-        <v>1.540036062505308</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.539194472029195</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.360143383450861</v>
+        <v>4.359104342396961</v>
       </c>
       <c r="C14">
-        <v>2.154422061421826</v>
+        <v>2.151968537188793</v>
       </c>
       <c r="D14">
-        <v>0.3660110886479799</v>
+        <v>0.3659552537423707</v>
       </c>
       <c r="E14">
-        <v>2.673568959389655</v>
+        <v>2.673089212567518</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.581502214303441</v>
+        <v>1.522810307781185</v>
       </c>
       <c r="H14">
-        <v>2.963739311343502</v>
+        <v>3.046791382059723</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.95455207560893</v>
       </c>
       <c r="J14">
-        <v>1.507140245382928</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.506328652528197</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.302908568415432</v>
+        <v>4.301905073747093</v>
       </c>
       <c r="C15">
-        <v>2.125195394172579</v>
+        <v>2.122783902025105</v>
       </c>
       <c r="D15">
-        <v>0.361206980238677</v>
+        <v>0.3611529832348879</v>
       </c>
       <c r="E15">
-        <v>2.634809639580595</v>
+        <v>2.634347203433208</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.524091552830157</v>
+        <v>1.503216207243298</v>
       </c>
       <c r="H15">
-        <v>2.928387871538973</v>
+        <v>3.009192036931893</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.919317654048072</v>
       </c>
       <c r="J15">
-        <v>1.487137762661547</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.486344120838936</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.980527017497877</v>
+        <v>3.979712077959277</v>
       </c>
       <c r="C16">
-        <v>1.961048980712917</v>
+        <v>1.958868200242819</v>
       </c>
       <c r="D16">
-        <v>0.3341553789277043</v>
+        <v>0.3341110598765624</v>
       </c>
       <c r="E16">
-        <v>2.418534298328126</v>
+        <v>2.418161501038171</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.202425508640374</v>
+        <v>1.393392523966014</v>
       </c>
       <c r="H16">
-        <v>2.730452267128726</v>
+        <v>2.798564584823907</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.72203691882487</v>
       </c>
       <c r="J16">
-        <v>1.37458075633549</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.373884149803487</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.787260804651339</v>
+        <v>3.786549658193906</v>
       </c>
       <c r="C17">
-        <v>1.863028157795497</v>
+        <v>1.860980948868928</v>
       </c>
       <c r="D17">
-        <v>0.3179467811992822</v>
+        <v>0.3179077362742362</v>
       </c>
       <c r="E17">
-        <v>2.290497773110545</v>
+        <v>2.290172721086577</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.011016462467921</v>
+        <v>1.328006896873461</v>
       </c>
       <c r="H17">
-        <v>2.612785606060584</v>
+        <v>2.673262859871244</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.604759617546904</v>
       </c>
       <c r="J17">
-        <v>1.307191583393717</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.306549929699685</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.677573281943239</v>
+        <v>3.676918043266539</v>
       </c>
       <c r="C18">
-        <v>1.807523755952502</v>
+        <v>1.805550834631674</v>
       </c>
       <c r="D18">
-        <v>0.308751353020412</v>
+        <v>0.3087151326694624</v>
       </c>
       <c r="E18">
-        <v>2.218356651132282</v>
+        <v>2.218056837030261</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.902874893920142</v>
+        <v>1.291053264918389</v>
       </c>
       <c r="H18">
-        <v>2.546347860388352</v>
+        <v>2.602482425181421</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.538541853425542</v>
       </c>
       <c r="J18">
-        <v>1.268974287847954</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.268362781952519</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.640672358553616</v>
+        <v>3.640035446595732</v>
       </c>
       <c r="C19">
-        <v>1.788871617780956</v>
+        <v>1.786923445557932</v>
       </c>
       <c r="D19">
-        <v>0.3056585153521354</v>
+        <v>0.3056232183731282</v>
       </c>
       <c r="E19">
-        <v>2.194171380156817</v>
+        <v>2.193879765176987</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.866575666223156</v>
+        <v>1.278647178807461</v>
       </c>
       <c r="H19">
-        <v>2.524054036335627</v>
+        <v>2.578726044187931</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.516321879478994</v>
       </c>
       <c r="J19">
-        <v>1.256122010188207</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.255520479846922</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.807677924668099</v>
+        <v>3.806956133504002</v>
       </c>
       <c r="C20">
-        <v>1.873369813835268</v>
+        <v>1.871308656792166</v>
       </c>
       <c r="D20">
-        <v>0.319658722447528</v>
+        <v>0.3196191384226807</v>
       </c>
       <c r="E20">
-        <v>2.303967750584789</v>
+        <v>2.303637855025386</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.031185516628113</v>
+        <v>1.334897966496726</v>
       </c>
       <c r="H20">
-        <v>2.625179999355467</v>
+        <v>2.68646482767636</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.617112985608358</v>
       </c>
       <c r="J20">
-        <v>1.314307638391725</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.313660290521639</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.387695843002462</v>
+        <v>4.38663946290751</v>
       </c>
       <c r="C21">
-        <v>2.168500736261478</v>
+        <v>2.166026859596116</v>
       </c>
       <c r="D21">
-        <v>0.3683238740228632</v>
+        <v>0.3682671411169451</v>
       </c>
       <c r="E21">
-        <v>2.692267142770291</v>
+        <v>2.691778905197239</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.60917129395429</v>
+        <v>1.532252952578347</v>
       </c>
       <c r="H21">
-        <v>2.980779433248728</v>
+        <v>3.064913080616378</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.971535780594721</v>
       </c>
       <c r="J21">
-        <v>1.516771406108916</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.515951092143098</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.784107415416486</v>
+        <v>4.782784784440025</v>
       </c>
       <c r="C22">
-        <v>2.371722323897984</v>
+        <v>2.36894680516167</v>
       </c>
       <c r="D22">
-        <v>0.4016048212872931</v>
+        <v>0.4015341807786683</v>
       </c>
       <c r="E22">
-        <v>2.964212281583059</v>
+        <v>2.963589862003715</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.00951525955972</v>
+        <v>1.668827732057593</v>
       </c>
       <c r="H22">
-        <v>3.2275050071176</v>
+        <v>3.327162567681995</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.217443167316844</v>
       </c>
       <c r="J22">
-        <v>1.655492165520812</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.654540479867606</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.570712845073786</v>
+        <v>4.569537487619129</v>
       </c>
       <c r="C23">
-        <v>2.262169939968146</v>
+        <v>2.259558881030216</v>
       </c>
       <c r="D23">
-        <v>0.3836881336400921</v>
+        <v>0.3836252129276119</v>
       </c>
       <c r="E23">
-        <v>2.817133213903631</v>
+        <v>2.816585892510361</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.793484364642211</v>
+        <v>1.595141734067937</v>
       </c>
       <c r="H23">
-        <v>3.094329551897275</v>
+        <v>3.185638783363146</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.084709700597344</v>
       </c>
       <c r="J23">
-        <v>1.580781093149866</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.579901515015678</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.798442952449079</v>
+        <v>3.79772598534737</v>
       </c>
       <c r="C24">
-        <v>1.86869173215041</v>
+        <v>1.866636888761434</v>
       </c>
       <c r="D24">
-        <v>0.3188843738174398</v>
+        <v>0.3188450341576754</v>
       </c>
       <c r="E24">
-        <v>2.297873446580681</v>
+        <v>2.297545747569629</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.022061215555254</v>
+        <v>1.331780546290418</v>
       </c>
       <c r="H24">
-        <v>2.619572757152966</v>
+        <v>2.680492336800711</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.611524302821067</v>
       </c>
       <c r="J24">
-        <v>1.311088848457402</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.310444079374264</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.020444421633329</v>
+        <v>3.020080180484342</v>
       </c>
       <c r="C25">
-        <v>1.476905782070673</v>
+        <v>1.475356037085305</v>
       </c>
       <c r="D25">
-        <v>0.253738467521373</v>
+        <v>0.2537167587784666</v>
       </c>
       <c r="E25">
-        <v>1.793836693457393</v>
+        <v>1.793662664556564</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.26291453466898</v>
+        <v>1.072160473282921</v>
       </c>
       <c r="H25">
-        <v>2.153868494015029</v>
+        <v>2.183826953976876</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.14736694633892</v>
       </c>
       <c r="J25">
-        <v>1.04045597883875</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.040009938265797</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.478363282234852</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.20546645349242</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2084977747559549</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.453104223919226</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8951660315972703</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.846253518883586</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.83267873462178</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8522408856872516</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.12439261352489</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.030299317098837</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1790475080571667</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.234984131007494</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7814787933854177</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.630021619854034</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.631532164317477</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.729822280688559</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.911930757048395</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9256122289460791</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.161417692734517</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.10569510598576</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7140813007182629</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.502115556075495</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.512738476762067</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6564485290494915</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.826371110351147</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.8835507031492114</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1543296227496569</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.053971586612704</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6871337570505318</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.451044603651923</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.465350543179255</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6269229012140656</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.812220072276062</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.8765993560456309</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.153157989433268</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.045435676080814</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6826880266743132</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.442623238609812</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.457539103557068</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6220407914889208</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.910772992587027</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9250426951923885</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1613217327339385</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.104993894256154</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7137158897325548</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.501422747088668</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.512095452144408</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6560489119421291</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.355169129200306</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.144395669591006</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1982380444882779</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.376801895315097</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8554107301483356</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.770578232172554</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.76224082605124</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8096102700431871</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.276300996752582</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.603772721132657</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2751525744494785</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.957676394860812</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.157019413172662</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2.345995059396216</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.298783939942638</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.128997293479614</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.00196508101709</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.970163576704408</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3359782265821565</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.43298323071906</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.40094745849467</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2.813047449339194</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.735596486186168</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.381645524452878</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.348142948425391</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.146373747393397</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.365034941679852</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2.665656271085311</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.519053157553969</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3.039581285641731</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.947795082218732</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.502498457043302</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.482132437689415</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.214827941926444</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3762854201492303</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2.756797204683465</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.565051712951913</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3.127868665932425</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.030546979140823</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.549332721495531</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.453135493521529</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.200001637634273</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3738505429964079</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2.737020809982567</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.555083813412409</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3.108734094461227</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.012609782502139</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.539194472029195</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.359104342396961</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.151968537188793</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3659552537423707</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2.673089212567518</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.522810307781185</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>3.046791382059723</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.95455207560893</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.506328652528197</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.301905073747093</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.122783902025105</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3611529832348879</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2.634347203433208</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.503216207243298</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3.009192036931893</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.919317654048072</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.486344120838936</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.979712077959277</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.958868200242819</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3341110598765624</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2.418161501038171</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.393392523966014</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2.798564584823907</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.72203691882487</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.373884149803487</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.786549658193906</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.860980948868928</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3179077362742362</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2.290172721086577</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.328006896873461</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2.673262859871244</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.604759617546904</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.306549929699685</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.676918043266539</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.805550834631674</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3087151326694624</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>2.218056837030261</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.291053264918389</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2.602482425181421</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.538541853425542</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.268362781952519</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.640035446595732</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.786923445557932</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3056232183731282</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2.193879765176987</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.278647178807461</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2.578726044187931</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.516321879478994</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.255520479846922</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.806956133504002</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.871308656792166</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3196191384226807</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.303637855025386</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.334897966496726</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2.68646482767636</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.617112985608358</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.313660290521639</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.38663946290751</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.166026859596116</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3682671411169451</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2.691778905197239</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.532252952578347</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3.064913080616378</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.971535780594721</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.515951092143098</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.782784784440025</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2.36894680516167</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4015341807786683</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>2.963589862003715</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.668827732057593</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3.327162567681995</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.217443167316844</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.654540479867606</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.569537487619129</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2.259558881030216</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3836252129276119</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>2.816585892510361</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.595141734067937</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3.185638783363146</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.084709700597344</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.579901515015678</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.79772598534737</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.866636888761434</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3188450341576754</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2.297545747569629</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.331780546290418</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2.680492336800711</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.611524302821067</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.310444079374264</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.020080180484342</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.475356037085305</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2537167587784666</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1.793662664556564</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.072160473282921</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2.183826953976876</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.14736694633892</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.040009938265797</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.615923589352121</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.713986760524733</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1965572306016696</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04954450897921525</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008084599634140458</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.722876778112067</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2354540006128758</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4795742845609539</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.245969996327119</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.465610914659237</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1680921985319941</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.04291074453469612</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008240310619106854</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.560624603039372</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2112696607001254</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4168162975952114</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.030628500471551</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.318351369241952</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1511969842870258</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03898016851190178</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008336982464709676</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.867080457914028</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1969620959310276</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3801349295087704</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.945407222698918</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.259440838805403</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1444342131523655</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.03740710284241544</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008376721331497623</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.588619329179636</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1912491521528992</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3655862586479159</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.931397640726061</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.249719332708366</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1433179933913067</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03714743933092279</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008383342773445879</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.542608930363741</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1903071201562554</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3631928161088354</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.029469455811977</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.317552699152316</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1511053141411907</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03895884617458378</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008337516907010104</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.863309257775711</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1968845962757442</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.379937185223703</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.485626574044545</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.627115315672768</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1866058142749409</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.04722289914044175</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008138117520513849</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.317389113658322</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2269906779110471</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.4575076033414973</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.497993594329728</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.287827346158508</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2621715351828726</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.06495894528189083</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007751370730585788</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.37635033308712</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2913420934400079</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.6279687035377677</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4.356620496566734</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.827324100329861</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3236616114358384</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.07964198680465628</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007462487367137526</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.83467372786077</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3436345711361071</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.7708624483649373</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.785658447407229</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3.091149252044147</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3536584673923073</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.08690983873880853</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007327767375722924</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.02471187756294</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3690543196626805</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.8417195570863285</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4.955222992491429</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3.194469986503577</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3653924053605095</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.08977368805933139</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007276015838006201</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.48862172539577</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3789764173196914</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.8696267114088414</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.918358183992893</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3.172051228102873</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.362847011024499</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.08915141204322907</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007287199216688108</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.38806365267112</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3768251638318816</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.8635640827270095</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.799455622923062</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3.099575786839182</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3546157432719923</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.08714302439036459</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007323526277005905</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.06259202197657</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3698642626501965</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.8439923522836779</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.727603567394169</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.055654209971181</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3496255773935815</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.08592832513522097</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007345672713509628</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.86506173811745</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3656412170101504</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.8321522623593864</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4.329478983502383</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.810513502010963</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3217485881453825</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.07918097936972401</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007471204544937103</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.75857891733673</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.342011036392492</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.766367959835307</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.096064714270369</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.665320983623587</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3052177415619326</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0752091487214912</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007547204897227163</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.10001003546836</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.327971209853871</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.7276561776920332</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.965313102485652</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.583485531942642</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2958940321415326</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.07297802475247295</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000759062641184066</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.72775331764686</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3200449285626235</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.7059239193571614</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3.921603871162972</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.556045323306364</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2927666871254075</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.07223107773398141</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007605284817975289</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.60275907208228</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3173852207970782</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.6986513855877945</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.120539723283287</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.680598717206635</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3069578651383722</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.07562626411135653</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000753914638511155</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.16942075874621</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3294499552305155</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.7317204004238391</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4.834172590592175</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3.120763546844216</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.357022499823799</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.08772964566604458</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000731287859362606</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.15780288152996</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3719002279494674</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.8497096438477456</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5.343071965555964</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3.428898821041855</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.391986808210504</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.09631063839735532</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007160523496867928</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>17.53674992251501</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4014136670481179</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.933256203035171</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5.066914679469164</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3.262246613008813</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3730854213204537</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.09165794882369482</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007242356731950367</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.79228593420771</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3854743545068828</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.8879794186415708</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4.109463963898463</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2.673686607505829</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3061706002577864</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.07543752514599689</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007542790465869378</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.13802056067235</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3287809659371419</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.7298813508030122</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.2076654738608</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2.101428836219156</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2408815183372752</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.05993323314520893</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007856199033756845</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.51899267175349</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2732041948140704</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.5793108228292638</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.615923589352121</v>
+        <v>2.18002852371518</v>
       </c>
       <c r="C2">
-        <v>1.713986760524733</v>
+        <v>0.6761278030046469</v>
       </c>
       <c r="D2">
-        <v>0.1965572306016696</v>
+        <v>0.07615100855500145</v>
       </c>
       <c r="E2">
-        <v>0.04954450897921525</v>
+        <v>0.02366815836121994</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008084599634140458</v>
+        <v>0.002624281447382109</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.722876778112067</v>
+        <v>5.340480164378221</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2354540006128758</v>
+        <v>0.2584232613214112</v>
       </c>
       <c r="M2">
-        <v>0.4795742845609539</v>
+        <v>0.4460954985905374</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.245969996327119</v>
+        <v>2.138716933417641</v>
       </c>
       <c r="C3">
-        <v>1.465610914659237</v>
+        <v>0.6177543629814295</v>
       </c>
       <c r="D3">
-        <v>0.1680921985319941</v>
+        <v>0.06940886055295437</v>
       </c>
       <c r="E3">
-        <v>0.04291074453469612</v>
+        <v>0.02186476694391892</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008240310619106854</v>
+        <v>0.002632625424891977</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.560624603039372</v>
+        <v>5.022548585116141</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2112696607001254</v>
+        <v>0.2537091083283656</v>
       </c>
       <c r="M3">
-        <v>0.4168162975952114</v>
+        <v>0.4380383593690098</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.030628500471551</v>
+        <v>2.115984517341019</v>
       </c>
       <c r="C4">
-        <v>1.318351369241952</v>
+        <v>0.5823632693760601</v>
       </c>
       <c r="D4">
-        <v>0.1511969842870258</v>
+        <v>0.06531981777986573</v>
       </c>
       <c r="E4">
-        <v>0.03898016851190178</v>
+        <v>0.02074821224069545</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008336982464709676</v>
+        <v>0.002638001750621491</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.867080457914028</v>
+        <v>4.827519444046828</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1969620959310276</v>
+        <v>0.2509340129953586</v>
       </c>
       <c r="M4">
-        <v>0.3801349295087704</v>
+        <v>0.4335272828527366</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.945407222698918</v>
+        <v>2.107377628384711</v>
       </c>
       <c r="C5">
-        <v>1.259440838805403</v>
+        <v>0.5680512558322448</v>
       </c>
       <c r="D5">
-        <v>0.1444342131523655</v>
+        <v>0.06366588582453403</v>
       </c>
       <c r="E5">
-        <v>0.03740710284241544</v>
+        <v>0.0202907596358326</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008376721331497623</v>
+        <v>0.002640256576122465</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.588619329179636</v>
+        <v>4.748073881517485</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1912491521528992</v>
+        <v>0.2498329624860318</v>
       </c>
       <c r="M5">
-        <v>0.3655862586479159</v>
+        <v>0.4317978645850431</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.931397640726061</v>
+        <v>2.105987973712786</v>
       </c>
       <c r="C6">
-        <v>1.249719332708366</v>
+        <v>0.5656813192911727</v>
       </c>
       <c r="D6">
-        <v>0.1433179933913067</v>
+        <v>0.06339198957508074</v>
       </c>
       <c r="E6">
-        <v>0.03714743933092279</v>
+        <v>0.02021464875035761</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008383342773445879</v>
+        <v>0.00264063485783242</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.542608930363741</v>
+        <v>4.734883396384248</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1903071201562554</v>
+        <v>0.2496519292949912</v>
       </c>
       <c r="M6">
-        <v>0.3631928161088354</v>
+        <v>0.4315172503005442</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.029469455811977</v>
+        <v>2.115865789601344</v>
       </c>
       <c r="C7">
-        <v>1.317552699152316</v>
+        <v>0.582169810665448</v>
       </c>
       <c r="D7">
-        <v>0.1511053141411907</v>
+        <v>0.06529746258642888</v>
       </c>
       <c r="E7">
-        <v>0.03895884617458378</v>
+        <v>0.02074205293933673</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008337516907010104</v>
+        <v>0.002638031900637802</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.863309257775711</v>
+        <v>4.826447910541816</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1968845962757442</v>
+        <v>0.2509190433542869</v>
       </c>
       <c r="M7">
-        <v>0.379937185223703</v>
+        <v>0.433503519444578</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.485626574044545</v>
+        <v>2.165234508694198</v>
       </c>
       <c r="C8">
-        <v>1.627115315672768</v>
+        <v>0.6559052388853388</v>
       </c>
       <c r="D8">
-        <v>0.1866058142749409</v>
+        <v>0.0738155838943868</v>
       </c>
       <c r="E8">
-        <v>0.04722289914044175</v>
+        <v>0.02304820014830966</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008138117520513849</v>
+        <v>0.002627106095890345</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.317389113658322</v>
+        <v>5.230810130539197</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2269906779110471</v>
+        <v>0.2567729105263368</v>
       </c>
       <c r="M8">
-        <v>0.4575076033414973</v>
+        <v>0.443226426733645</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.497993594329728</v>
+        <v>2.28319616158177</v>
       </c>
       <c r="C9">
-        <v>2.287827346158508</v>
+        <v>0.8042248028803556</v>
       </c>
       <c r="D9">
-        <v>0.2621715351828726</v>
+        <v>0.09093865507058752</v>
       </c>
       <c r="E9">
-        <v>0.06495894528189083</v>
+        <v>0.02750257722632199</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007751370730585788</v>
+        <v>0.002607675572781698</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.37635033308712</v>
+        <v>6.025946357675195</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2913420934400079</v>
+        <v>0.2692101089328105</v>
       </c>
       <c r="M9">
-        <v>0.6279687035377677</v>
+        <v>0.4657900396860981</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.356620496566734</v>
+        <v>2.383136592406458</v>
       </c>
       <c r="C10">
-        <v>2.827324100329861</v>
+        <v>0.9156888092468307</v>
       </c>
       <c r="D10">
-        <v>0.3236616114358384</v>
+        <v>0.1037997306055871</v>
       </c>
       <c r="E10">
-        <v>0.07964198680465628</v>
+        <v>0.03074179292876877</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007462487367137526</v>
+        <v>0.002594597529915072</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.83467372786077</v>
+        <v>6.612548985272412</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3436345711361071</v>
+        <v>0.2789474356876696</v>
       </c>
       <c r="M10">
-        <v>0.7708624483649373</v>
+        <v>0.484555101860856</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.785658447407229</v>
+        <v>2.431570942277574</v>
       </c>
       <c r="C11">
-        <v>3.091149252044147</v>
+        <v>0.9669883770318961</v>
       </c>
       <c r="D11">
-        <v>0.3536584673923073</v>
+        <v>0.1097172241849478</v>
       </c>
       <c r="E11">
-        <v>0.08690983873880853</v>
+        <v>0.03220993085373891</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007327767375722924</v>
+        <v>0.002588904004285579</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.02471187756294</v>
+        <v>6.880176944700054</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3690543196626805</v>
+        <v>0.283511050310878</v>
       </c>
       <c r="M11">
-        <v>0.8417195570863285</v>
+        <v>0.4935795424244773</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.955222992491429</v>
+        <v>2.45034606082703</v>
       </c>
       <c r="C12">
-        <v>3.194469986503577</v>
+        <v>0.9865036021618039</v>
       </c>
       <c r="D12">
-        <v>0.3653924053605095</v>
+        <v>0.1119681006306621</v>
       </c>
       <c r="E12">
-        <v>0.08977368805933139</v>
+        <v>0.03276524511226953</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007276015838006201</v>
+        <v>0.002586784475021698</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.48862172539577</v>
+        <v>6.981651925051153</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3789764173196914</v>
+        <v>0.2852587322024647</v>
       </c>
       <c r="M12">
-        <v>0.8696267114088414</v>
+        <v>0.497068082542178</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.918358183992893</v>
+        <v>2.446283085520463</v>
       </c>
       <c r="C13">
-        <v>3.172051228102873</v>
+        <v>0.9822966212955748</v>
       </c>
       <c r="D13">
-        <v>0.362847011024499</v>
+        <v>0.1114828802303265</v>
       </c>
       <c r="E13">
-        <v>0.08915141204322907</v>
+        <v>0.03264567437383903</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007287199216688108</v>
+        <v>0.002587239335651118</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.38806365267112</v>
+        <v>6.959791396246203</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3768251638318816</v>
+        <v>0.2848814643045756</v>
       </c>
       <c r="M13">
-        <v>0.8635640827270095</v>
+        <v>0.4963135811295345</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.799455622923062</v>
+        <v>2.433106842835343</v>
       </c>
       <c r="C14">
-        <v>3.099575786839182</v>
+        <v>0.9685920968372557</v>
       </c>
       <c r="D14">
-        <v>0.3546157432719923</v>
+        <v>0.1099022012441253</v>
       </c>
       <c r="E14">
-        <v>0.08714302439036459</v>
+        <v>0.03225562886757061</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007323526277005905</v>
+        <v>0.002588728899735493</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.06259202197657</v>
+        <v>6.888522640894109</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3698642626501965</v>
+        <v>0.2836544400004612</v>
       </c>
       <c r="M14">
-        <v>0.8439923522836779</v>
+        <v>0.4938651143734916</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.727603567394169</v>
+        <v>2.425092751456702</v>
       </c>
       <c r="C15">
-        <v>3.055654209971181</v>
+        <v>0.9602094090157607</v>
       </c>
       <c r="D15">
-        <v>0.3496255773935815</v>
+        <v>0.1089353113808897</v>
       </c>
       <c r="E15">
-        <v>0.08592832513522097</v>
+        <v>0.03201663585016234</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007345672713509628</v>
+        <v>0.002589646043745098</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.86506173811745</v>
+        <v>6.844885951610706</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3656412170101504</v>
+        <v>0.282905404840605</v>
       </c>
       <c r="M15">
-        <v>0.8321522623593864</v>
+        <v>0.4923746575026939</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.329478983502383</v>
+        <v>2.380031658339931</v>
       </c>
       <c r="C16">
-        <v>2.810513502010963</v>
+        <v>0.9123485353572391</v>
       </c>
       <c r="D16">
-        <v>0.3217485881453825</v>
+        <v>0.1034143913790189</v>
       </c>
       <c r="E16">
-        <v>0.07918097936972401</v>
+        <v>0.0306457498100734</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007471204544937103</v>
+        <v>0.002594974736548728</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.75857891733673</v>
+        <v>6.595076082729804</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.342011036392492</v>
+        <v>0.2786519125651807</v>
       </c>
       <c r="M16">
-        <v>0.766367959835307</v>
+        <v>0.4839752394688546</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.096064714270369</v>
+        <v>2.353153880605873</v>
       </c>
       <c r="C17">
-        <v>2.665320983623587</v>
+        <v>0.8831422369254369</v>
       </c>
       <c r="D17">
-        <v>0.3052177415619326</v>
+        <v>0.1000449268003507</v>
       </c>
       <c r="E17">
-        <v>0.0752091487214912</v>
+        <v>0.02980347065875222</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007547204897227163</v>
+        <v>0.002598309012575627</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.10001003546836</v>
+        <v>6.442038138753986</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.327971209853871</v>
+        <v>0.2760770520637834</v>
       </c>
       <c r="M17">
-        <v>0.7276561776920332</v>
+        <v>0.4789481810937559</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.965313102485652</v>
+        <v>2.337973709439893</v>
       </c>
       <c r="C18">
-        <v>2.583485531942642</v>
+        <v>0.8663992280567641</v>
       </c>
       <c r="D18">
-        <v>0.2958940321415326</v>
+        <v>0.09811317310011702</v>
       </c>
       <c r="E18">
-        <v>0.07297802475247295</v>
+        <v>0.02931849744656745</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000759062641184066</v>
+        <v>0.002600250889012159</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.72775331764686</v>
+        <v>6.354087029491865</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3200449285626235</v>
+        <v>0.2746086621054502</v>
       </c>
       <c r="M18">
-        <v>0.7059239193571614</v>
+        <v>0.4761026330318785</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.921603871162972</v>
+        <v>2.332881714351061</v>
       </c>
       <c r="C19">
-        <v>2.556045323306364</v>
+        <v>0.8607397830534183</v>
       </c>
       <c r="D19">
-        <v>0.2927666871254075</v>
+        <v>0.09746017911798788</v>
       </c>
       <c r="E19">
-        <v>0.07223107773398141</v>
+        <v>0.02915420097336607</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007605284817975289</v>
+        <v>0.0026009125211991</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.60275907208228</v>
+        <v>6.324320165640501</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3173852207970782</v>
+        <v>0.2741136469837926</v>
       </c>
       <c r="M19">
-        <v>0.6986513855877945</v>
+        <v>0.4751470301859797</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.120539723283287</v>
+        <v>2.35598611917311</v>
       </c>
       <c r="C20">
-        <v>2.680598717206635</v>
+        <v>0.886245507431056</v>
       </c>
       <c r="D20">
-        <v>0.3069578651383722</v>
+        <v>0.1004029597525289</v>
       </c>
       <c r="E20">
-        <v>0.07562626411135653</v>
+        <v>0.02989318517778727</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000753914638511155</v>
+        <v>0.00259795158183311</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.16942075874621</v>
+        <v>6.458321680585897</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3294499552305155</v>
+        <v>0.2763498442552361</v>
       </c>
       <c r="M20">
-        <v>0.7317204004238391</v>
+        <v>0.47947856426957</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.834172590592175</v>
+        <v>2.436965188046656</v>
       </c>
       <c r="C21">
-        <v>3.120763546844216</v>
+        <v>0.9726149966683124</v>
       </c>
       <c r="D21">
-        <v>0.357022499823799</v>
+        <v>0.1103662087710831</v>
       </c>
       <c r="E21">
-        <v>0.08772964566604458</v>
+        <v>0.03237021087508651</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000731287859362606</v>
+        <v>0.002588290390953792</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.15780288152996</v>
+        <v>6.90945232617986</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3719002279494674</v>
+        <v>0.284014314329653</v>
       </c>
       <c r="M21">
-        <v>0.8497096438477456</v>
+        <v>0.4945823485453786</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.343071965555964</v>
+        <v>2.492423196256709</v>
       </c>
       <c r="C22">
-        <v>3.428898821041855</v>
+        <v>1.029584154284237</v>
       </c>
       <c r="D22">
-        <v>0.391986808210504</v>
+        <v>0.1169365533386895</v>
       </c>
       <c r="E22">
-        <v>0.09631063839735532</v>
+        <v>0.03398543995147207</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007160523496867928</v>
+        <v>0.002582188771548033</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.53674992251501</v>
+        <v>7.205059132041072</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4014136670481179</v>
+        <v>0.2891375116659276</v>
       </c>
       <c r="M22">
-        <v>0.933256203035171</v>
+        <v>0.5048689214840749</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.066914679469164</v>
+        <v>2.462590071106831</v>
       </c>
       <c r="C23">
-        <v>3.262246613008813</v>
+        <v>0.999129634181088</v>
       </c>
       <c r="D23">
-        <v>0.3730854213204537</v>
+        <v>0.1134243141320184</v>
       </c>
       <c r="E23">
-        <v>0.09165794882369482</v>
+        <v>0.03312364919007393</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007242356731950367</v>
+        <v>0.002585425970702768</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.79228593420771</v>
+        <v>7.047211998787475</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3854743545068828</v>
+        <v>0.2863926424510908</v>
       </c>
       <c r="M23">
-        <v>0.8879794186415708</v>
+        <v>0.4993404412051134</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.109463963898463</v>
+        <v>2.354704816724848</v>
       </c>
       <c r="C24">
-        <v>2.673686607505829</v>
+        <v>0.8848423693581822</v>
       </c>
       <c r="D24">
-        <v>0.3061706002577864</v>
+        <v>0.1002410762785502</v>
       </c>
       <c r="E24">
-        <v>0.07543752514599689</v>
+        <v>0.02985262754575402</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007542790465869378</v>
+        <v>0.00259811309875966</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.13802056067235</v>
+        <v>6.45095979162565</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3287809659371419</v>
+        <v>0.2762264777605878</v>
       </c>
       <c r="M24">
-        <v>0.7298813508030122</v>
+        <v>0.4792386392697878</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.2076654738608</v>
+        <v>2.248981569940895</v>
       </c>
       <c r="C25">
-        <v>2.101428836219156</v>
+        <v>0.7636789593540811</v>
       </c>
       <c r="D25">
-        <v>0.2408815183372752</v>
+        <v>0.08625896989013881</v>
       </c>
       <c r="E25">
-        <v>0.05993323314520893</v>
+        <v>0.02630400825124468</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007856199033756845</v>
+        <v>0.00261272039134938</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.51899267175349</v>
+        <v>5.810496331730889</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2732041948140704</v>
+        <v>0.2657413732228804</v>
       </c>
       <c r="M25">
-        <v>0.5793108228292638</v>
+        <v>0.4593059556947239</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.18002852371518</v>
+        <v>2.615923589352121</v>
       </c>
       <c r="C2">
-        <v>0.6761278030046469</v>
+        <v>1.713986760524904</v>
       </c>
       <c r="D2">
-        <v>0.07615100855500145</v>
+        <v>0.1965572306011865</v>
       </c>
       <c r="E2">
-        <v>0.02366815836121994</v>
+        <v>0.04954450897906959</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002624281447382109</v>
+        <v>0.0008084599635227732</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.340480164378221</v>
+        <v>9.722876778112095</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2584232613214112</v>
+        <v>0.2354540006128047</v>
       </c>
       <c r="M2">
-        <v>0.4460954985905374</v>
+        <v>0.4795742845609112</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.138716933417641</v>
+        <v>2.245969996326721</v>
       </c>
       <c r="C3">
-        <v>0.6177543629814295</v>
+        <v>1.465610914658782</v>
       </c>
       <c r="D3">
-        <v>0.06940886055295437</v>
+        <v>0.1680921985329604</v>
       </c>
       <c r="E3">
-        <v>0.02186476694391892</v>
+        <v>0.04291074453467125</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002632625424891977</v>
+        <v>0.0008240310620564218</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.022548585116141</v>
+        <v>8.560624603039344</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2537091083283656</v>
+        <v>0.2112696606999975</v>
       </c>
       <c r="M3">
-        <v>0.4380383593690098</v>
+        <v>0.416816297595183</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.115984517341019</v>
+        <v>2.030628500471664</v>
       </c>
       <c r="C4">
-        <v>0.5823632693760601</v>
+        <v>1.318351369241441</v>
       </c>
       <c r="D4">
-        <v>0.06531981777986573</v>
+        <v>0.1511969842869831</v>
       </c>
       <c r="E4">
-        <v>0.02074821224069545</v>
+        <v>0.03898016851188935</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002638001750621491</v>
+        <v>0.0008336982462641712</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.827519444046828</v>
+        <v>7.867080457913914</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2509340129953586</v>
+        <v>0.1969620959312834</v>
       </c>
       <c r="M4">
-        <v>0.4335272828527366</v>
+        <v>0.3801349295087633</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.107377628384711</v>
+        <v>1.945407222699032</v>
       </c>
       <c r="C5">
-        <v>0.5680512558322448</v>
+        <v>1.259440838805403</v>
       </c>
       <c r="D5">
-        <v>0.06366588582453403</v>
+        <v>0.1444342131521097</v>
       </c>
       <c r="E5">
-        <v>0.0202907596358326</v>
+        <v>0.03740710284252202</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002640256576122465</v>
+        <v>0.000837672133027292</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.748073881517485</v>
+        <v>7.588619329179721</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2498329624860318</v>
+        <v>0.1912491521528281</v>
       </c>
       <c r="M5">
-        <v>0.4317978645850431</v>
+        <v>0.3655862586479302</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.105987973712786</v>
+        <v>1.931397640726232</v>
       </c>
       <c r="C6">
-        <v>0.5656813192911727</v>
+        <v>1.249719332707343</v>
       </c>
       <c r="D6">
-        <v>0.06339198957508074</v>
+        <v>0.1433179933912498</v>
       </c>
       <c r="E6">
-        <v>0.02021464875035761</v>
+        <v>0.03714743933090325</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00264063485783242</v>
+        <v>0.0008383342770932237</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.734883396384248</v>
+        <v>7.542608930363741</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2496519292949912</v>
+        <v>0.1903071201562696</v>
       </c>
       <c r="M6">
-        <v>0.4315172503005442</v>
+        <v>0.3631928161088211</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.115865789601344</v>
+        <v>2.029469455811807</v>
       </c>
       <c r="C7">
-        <v>0.582169810665448</v>
+        <v>1.317552699152316</v>
       </c>
       <c r="D7">
-        <v>0.06529746258642888</v>
+        <v>0.151105314141148</v>
       </c>
       <c r="E7">
-        <v>0.02074205293933673</v>
+        <v>0.03895884617464773</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002638031900637802</v>
+        <v>0.0008337516908339929</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.826447910541816</v>
+        <v>7.86330925777574</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2509190433542869</v>
+        <v>0.1968845962756518</v>
       </c>
       <c r="M7">
-        <v>0.433503519444578</v>
+        <v>0.3799371852236817</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.165234508694198</v>
+        <v>2.485626574044886</v>
       </c>
       <c r="C8">
-        <v>0.6559052388853388</v>
+        <v>1.627115315672825</v>
       </c>
       <c r="D8">
-        <v>0.0738155838943868</v>
+        <v>0.1866058142756231</v>
       </c>
       <c r="E8">
-        <v>0.02304820014830966</v>
+        <v>0.04722289914041333</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002627106095890345</v>
+        <v>0.0008138117518147914</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.230810130539197</v>
+        <v>9.317389113658294</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2567729105263368</v>
+        <v>0.2269906779110045</v>
       </c>
       <c r="M8">
-        <v>0.443226426733645</v>
+        <v>0.4575076033414547</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.28319616158177</v>
+        <v>3.497993594329898</v>
       </c>
       <c r="C9">
-        <v>0.8042248028803556</v>
+        <v>2.287827346157712</v>
       </c>
       <c r="D9">
-        <v>0.09093865507058752</v>
+        <v>0.2621715351827447</v>
       </c>
       <c r="E9">
-        <v>0.02750257722632199</v>
+        <v>0.06495894528193347</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002607675572781698</v>
+        <v>0.0007751370731785935</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.025946357675195</v>
+        <v>12.37635033308752</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2692101089328105</v>
+        <v>0.2913420934400506</v>
       </c>
       <c r="M9">
-        <v>0.4657900396860981</v>
+        <v>0.6279687035378601</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.383136592406458</v>
+        <v>4.356620496566507</v>
       </c>
       <c r="C10">
-        <v>0.9156888092468307</v>
+        <v>2.827324100330145</v>
       </c>
       <c r="D10">
-        <v>0.1037997306055871</v>
+        <v>0.3236616114364352</v>
       </c>
       <c r="E10">
-        <v>0.03074179292876877</v>
+        <v>0.07964198680479484</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002594597529915072</v>
+        <v>0.0007462487364801154</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.612548985272412</v>
+        <v>14.83467372786103</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2789474356876696</v>
+        <v>0.3436345711360786</v>
       </c>
       <c r="M10">
-        <v>0.484555101860856</v>
+        <v>0.7708624483648876</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.431570942277574</v>
+        <v>4.785658447407286</v>
       </c>
       <c r="C11">
-        <v>0.9669883770318961</v>
+        <v>3.091149252044829</v>
       </c>
       <c r="D11">
-        <v>0.1097172241849478</v>
+        <v>0.3536584673919236</v>
       </c>
       <c r="E11">
-        <v>0.03220993085373891</v>
+        <v>0.08690983873875524</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002588904004285579</v>
+        <v>0.0007327767375709436</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.880176944700054</v>
+        <v>16.02471187756311</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.283511050310878</v>
+        <v>0.3690543196627232</v>
       </c>
       <c r="M11">
-        <v>0.4935795424244773</v>
+        <v>0.8417195570862575</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.45034606082703</v>
+        <v>4.95522299249177</v>
       </c>
       <c r="C12">
-        <v>0.9865036021618039</v>
+        <v>3.194469986503293</v>
       </c>
       <c r="D12">
-        <v>0.1119681006306621</v>
+        <v>0.3653924053604811</v>
       </c>
       <c r="E12">
-        <v>0.03276524511226953</v>
+        <v>0.08977368805941666</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002586784475021698</v>
+        <v>0.0007276015837161401</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.981651925051153</v>
+        <v>16.48862172539577</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2852587322024647</v>
+        <v>0.378976417319862</v>
       </c>
       <c r="M12">
-        <v>0.497068082542178</v>
+        <v>0.8696267114088982</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.446283085520463</v>
+        <v>4.918358183992609</v>
       </c>
       <c r="C13">
-        <v>0.9822966212955748</v>
+        <v>3.172051228100997</v>
       </c>
       <c r="D13">
-        <v>0.1114828802303265</v>
+        <v>0.3628470110239732</v>
       </c>
       <c r="E13">
-        <v>0.03264567437383903</v>
+        <v>0.08915141204319355</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002587239335651118</v>
+        <v>0.0007287199221153159</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.959791396246203</v>
+        <v>16.38806365267135</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2848814643045756</v>
+        <v>0.3768251638320521</v>
       </c>
       <c r="M13">
-        <v>0.4963135811295345</v>
+        <v>0.8635640827270734</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.433106842835343</v>
+        <v>4.799455622922778</v>
       </c>
       <c r="C14">
-        <v>0.9685920968372557</v>
+        <v>3.099575786838045</v>
       </c>
       <c r="D14">
-        <v>0.1099022012441253</v>
+        <v>0.3546157432720065</v>
       </c>
       <c r="E14">
-        <v>0.03225562886757061</v>
+        <v>0.08714302439041788</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002588728899735493</v>
+        <v>0.0007323526277813304</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.888522640894109</v>
+        <v>16.06259202197657</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2836544400004612</v>
+        <v>0.3698642626503954</v>
       </c>
       <c r="M14">
-        <v>0.4938651143734916</v>
+        <v>0.8439923522837134</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.425092751456702</v>
+        <v>4.727603567393771</v>
       </c>
       <c r="C15">
-        <v>0.9602094090157607</v>
+        <v>3.055654209970385</v>
       </c>
       <c r="D15">
-        <v>0.1089353113808897</v>
+        <v>0.3496255773932972</v>
       </c>
       <c r="E15">
-        <v>0.03201663585016234</v>
+        <v>0.08592832513521742</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002589646043745098</v>
+        <v>0.0007345672708974396</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.844885951610706</v>
+        <v>15.86506173811796</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.282905404840605</v>
+        <v>0.3656412170104346</v>
       </c>
       <c r="M15">
-        <v>0.4923746575026939</v>
+        <v>0.8321522623593438</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.380031658339931</v>
+        <v>4.329478983502213</v>
       </c>
       <c r="C16">
-        <v>0.9123485353572391</v>
+        <v>2.810513502010451</v>
       </c>
       <c r="D16">
-        <v>0.1034143913790189</v>
+        <v>0.3217485881452973</v>
       </c>
       <c r="E16">
-        <v>0.0306457498100734</v>
+        <v>0.07918097936986257</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002594974736548728</v>
+        <v>0.0007471204545703619</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.595076082729804</v>
+        <v>14.75857891733699</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2786519125651807</v>
+        <v>0.3420110363923783</v>
       </c>
       <c r="M16">
-        <v>0.4839752394688546</v>
+        <v>0.7663679598353355</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.353153880605873</v>
+        <v>4.096064714270653</v>
       </c>
       <c r="C17">
-        <v>0.8831422369254369</v>
+        <v>2.665320983623531</v>
       </c>
       <c r="D17">
-        <v>0.1000449268003507</v>
+        <v>0.3052177415629131</v>
       </c>
       <c r="E17">
-        <v>0.02980347065875222</v>
+        <v>0.0752091487216191</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002598309012575627</v>
+        <v>0.0007547204896940381</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.442038138753986</v>
+        <v>14.10001003546876</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2760770520637834</v>
+        <v>0.327971209853942</v>
       </c>
       <c r="M17">
-        <v>0.4789481810937559</v>
+        <v>0.727656177692019</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.337973709439893</v>
+        <v>3.965313102485311</v>
       </c>
       <c r="C18">
-        <v>0.8663992280567641</v>
+        <v>2.583485531941903</v>
       </c>
       <c r="D18">
-        <v>0.09811317310011702</v>
+        <v>0.2958940321422858</v>
       </c>
       <c r="E18">
-        <v>0.02931849744656745</v>
+        <v>0.07297802475243742</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002600250889012159</v>
+        <v>0.0007590626410764666</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.354087029491865</v>
+        <v>13.72775331764689</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2746086621054502</v>
+        <v>0.3200449285628082</v>
       </c>
       <c r="M18">
-        <v>0.4761026330318785</v>
+        <v>0.7059239193570619</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.332881714351061</v>
+        <v>3.921603871162972</v>
       </c>
       <c r="C19">
-        <v>0.8607397830534183</v>
+        <v>2.556045323304716</v>
       </c>
       <c r="D19">
-        <v>0.09746017911798788</v>
+        <v>0.2927666871255781</v>
       </c>
       <c r="E19">
-        <v>0.02915420097336607</v>
+        <v>0.07223107773409865</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0026009125211991</v>
+        <v>0.0007605284817104314</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.324320165640501</v>
+        <v>13.60275907208214</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2741136469837926</v>
+        <v>0.3173852207971635</v>
       </c>
       <c r="M19">
-        <v>0.4751470301859797</v>
+        <v>0.6986513855877945</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.35598611917311</v>
+        <v>4.120539723283798</v>
       </c>
       <c r="C20">
-        <v>0.886245507431056</v>
+        <v>2.680598717206522</v>
       </c>
       <c r="D20">
-        <v>0.1004029597525289</v>
+        <v>0.3069578651386564</v>
       </c>
       <c r="E20">
-        <v>0.02989318517778727</v>
+        <v>0.07562626411153417</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00259795158183311</v>
+        <v>0.0007539146382810083</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.458321680585897</v>
+        <v>14.16942075874638</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2763498442552361</v>
+        <v>0.3294499552304444</v>
       </c>
       <c r="M20">
-        <v>0.47947856426957</v>
+        <v>0.7317204004238107</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.436965188046656</v>
+        <v>4.834172590592175</v>
       </c>
       <c r="C21">
-        <v>0.9726149966683124</v>
+        <v>3.120763546843193</v>
       </c>
       <c r="D21">
-        <v>0.1103662087710831</v>
+        <v>0.3570224998244242</v>
       </c>
       <c r="E21">
-        <v>0.03237021087508651</v>
+        <v>0.08772964566612984</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002588290390953792</v>
+        <v>0.0007312878591539832</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.90945232617986</v>
+        <v>16.15780288153024</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.284014314329653</v>
+        <v>0.3719002279493964</v>
       </c>
       <c r="M21">
-        <v>0.4945823485453786</v>
+        <v>0.8497096438477953</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.492423196256709</v>
+        <v>5.343071965556533</v>
       </c>
       <c r="C22">
-        <v>1.029584154284237</v>
+        <v>3.428898821041741</v>
       </c>
       <c r="D22">
-        <v>0.1169365533386895</v>
+        <v>0.3919868082107314</v>
       </c>
       <c r="E22">
-        <v>0.03398543995147207</v>
+        <v>0.09631063839748322</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002582188771548033</v>
+        <v>0.0007160523500437414</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.205059132041072</v>
+        <v>17.5367499225153</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2891375116659276</v>
+        <v>0.4014136670481747</v>
       </c>
       <c r="M22">
-        <v>0.5048689214840749</v>
+        <v>0.9332562030351852</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.462590071106831</v>
+        <v>5.066914679469107</v>
       </c>
       <c r="C23">
-        <v>0.999129634181088</v>
+        <v>3.262246613008244</v>
       </c>
       <c r="D23">
-        <v>0.1134243141320184</v>
+        <v>0.3730854213200416</v>
       </c>
       <c r="E23">
-        <v>0.03312364919007393</v>
+        <v>0.09165794882363087</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002585425970702768</v>
+        <v>0.0007242356731523602</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.047211998787475</v>
+        <v>16.79228593420697</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2863926424510908</v>
+        <v>0.3854743545070107</v>
       </c>
       <c r="M23">
-        <v>0.4993404412051134</v>
+        <v>0.8879794186414784</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.354704816724848</v>
+        <v>4.109463963898804</v>
       </c>
       <c r="C24">
-        <v>0.8848423693581822</v>
+        <v>2.673686607504862</v>
       </c>
       <c r="D24">
-        <v>0.1002410762785502</v>
+        <v>0.3061706002575875</v>
       </c>
       <c r="E24">
-        <v>0.02985262754575402</v>
+        <v>0.07543752514603597</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00259811309875966</v>
+        <v>0.0007542790466143366</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.45095979162565</v>
+        <v>14.13802056067209</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2762264777605878</v>
+        <v>0.3287809659370851</v>
       </c>
       <c r="M24">
-        <v>0.4792386392697878</v>
+        <v>0.7298813508029696</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.248981569940895</v>
+        <v>3.207665473860402</v>
       </c>
       <c r="C25">
-        <v>0.7636789593540811</v>
+        <v>2.101428836219782</v>
       </c>
       <c r="D25">
-        <v>0.08625896989013881</v>
+        <v>0.2408815183374031</v>
       </c>
       <c r="E25">
-        <v>0.02630400825124468</v>
+        <v>0.05993323314524801</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00261272039134938</v>
+        <v>0.0007856199032852728</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.810496331730889</v>
+        <v>11.51899267175335</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2657413732228804</v>
+        <v>0.2732041948140562</v>
       </c>
       <c r="M25">
-        <v>0.4593059556947239</v>
+        <v>0.579310822829278</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.615923589352121</v>
+        <v>0.7117402127006187</v>
       </c>
       <c r="C2">
-        <v>1.713986760524904</v>
+        <v>0.21719957454998</v>
       </c>
       <c r="D2">
-        <v>0.1965572306011865</v>
+        <v>0.4003726769849294</v>
       </c>
       <c r="E2">
-        <v>0.04954450897906959</v>
+        <v>0.1342905804469368</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008084599635227732</v>
+        <v>1.87676346335499</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02218689393390871</v>
       </c>
       <c r="I2">
-        <v>9.722876778112095</v>
+        <v>0.01970785119033014</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.174407584191869</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.192687984463831</v>
       </c>
       <c r="L2">
-        <v>0.2354540006128047</v>
+        <v>0.04999149822740989</v>
       </c>
       <c r="M2">
-        <v>0.4795742845609112</v>
+        <v>0.9170858297904374</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3780379479022855</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.245969996326721</v>
+        <v>0.6187597122920181</v>
       </c>
       <c r="C3">
-        <v>1.465610914658782</v>
+        <v>0.1889992927175683</v>
       </c>
       <c r="D3">
-        <v>0.1680921985329604</v>
+        <v>0.3604834194494089</v>
       </c>
       <c r="E3">
-        <v>0.04291074453467125</v>
+        <v>0.1191573387941638</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008240310620564218</v>
+        <v>1.74546187791023</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02786044053841841</v>
       </c>
       <c r="I3">
-        <v>8.560624603039344</v>
+        <v>0.02465508817272699</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.115291569351484</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.126907214996962</v>
       </c>
       <c r="L3">
-        <v>0.2112696606999975</v>
+        <v>0.04300611980563218</v>
       </c>
       <c r="M3">
-        <v>0.416816297595183</v>
+        <v>0.7970491014287688</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.330579735261054</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.030628500471664</v>
+        <v>0.5616440917291925</v>
       </c>
       <c r="C4">
-        <v>1.318351369241441</v>
+        <v>0.1720575288835704</v>
       </c>
       <c r="D4">
-        <v>0.1511969842869831</v>
+        <v>0.3361121541323371</v>
       </c>
       <c r="E4">
-        <v>0.03898016851188935</v>
+        <v>0.1098752497023092</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008336982462641712</v>
+        <v>1.664640095241694</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.03179817551011843</v>
       </c>
       <c r="I4">
-        <v>7.867080457913914</v>
+        <v>0.0281171561973883</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.078941404971715</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.086185082785128</v>
       </c>
       <c r="L4">
-        <v>0.1969620959312834</v>
+        <v>0.03877598949150141</v>
       </c>
       <c r="M4">
-        <v>0.3801349295087633</v>
+        <v>0.7237084708664838</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3015433262084031</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.945407222699032</v>
+        <v>0.538115205275318</v>
       </c>
       <c r="C5">
-        <v>1.259440838805403</v>
+        <v>0.165662347143325</v>
       </c>
       <c r="D5">
-        <v>0.1444342131521097</v>
+        <v>0.3261834911047572</v>
       </c>
       <c r="E5">
-        <v>0.03740710284252202</v>
+        <v>0.1060777848454961</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000837672133027292</v>
+        <v>1.62885154426624</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03352289489349247</v>
       </c>
       <c r="I5">
-        <v>7.588619329179721</v>
+        <v>0.02973435097921584</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.062688476717767</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.06757315704705</v>
       </c>
       <c r="L5">
-        <v>0.1912491521528281</v>
+        <v>0.03705390067758785</v>
       </c>
       <c r="M5">
-        <v>0.3655862586479302</v>
+        <v>0.6941726141290445</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2897926554395767</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.931397640726232</v>
+        <v>0.5339118784176264</v>
       </c>
       <c r="C6">
-        <v>1.249719332707343</v>
+        <v>0.1651231889031095</v>
       </c>
       <c r="D6">
-        <v>0.1433179933912498</v>
+        <v>0.3245079489310143</v>
       </c>
       <c r="E6">
-        <v>0.03714743933090325</v>
+        <v>0.1054282635615635</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008383342770932237</v>
+        <v>1.619495454764547</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.03382816914304865</v>
       </c>
       <c r="I6">
-        <v>7.542608930363741</v>
+        <v>0.03014305033523357</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.058251662667402</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.062120518042015</v>
       </c>
       <c r="L6">
-        <v>0.1903071201562696</v>
+        <v>0.03675526084880687</v>
       </c>
       <c r="M6">
-        <v>0.3631928161088211</v>
+        <v>0.689606931690065</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.287916936929534</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.029469455811807</v>
+        <v>0.5605155755900739</v>
       </c>
       <c r="C7">
-        <v>1.317552699152316</v>
+        <v>0.173386261819843</v>
       </c>
       <c r="D7">
-        <v>0.151105314141148</v>
+        <v>0.3359008822035747</v>
       </c>
       <c r="E7">
-        <v>0.03895884617464773</v>
+        <v>0.1097722227295073</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008337516908339929</v>
+        <v>1.65483630393706</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.03185323957359421</v>
       </c>
       <c r="I7">
-        <v>7.86330925777574</v>
+        <v>0.02848526651130801</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.07397782604329</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.079491411910944</v>
       </c>
       <c r="L7">
-        <v>0.1968845962756518</v>
+        <v>0.03871560810048891</v>
       </c>
       <c r="M7">
-        <v>0.3799371852236817</v>
+        <v>0.7242228846795058</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3015878230968667</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.485626574044886</v>
+        <v>0.6785897884325038</v>
       </c>
       <c r="C8">
-        <v>1.627115315672825</v>
+        <v>0.2092771387291634</v>
       </c>
       <c r="D8">
-        <v>0.1866058142756231</v>
+        <v>0.3864892504305857</v>
       </c>
       <c r="E8">
-        <v>0.04722289914041333</v>
+        <v>0.1290003454589623</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008138117518147914</v>
+        <v>1.819167879224977</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0240819989784169</v>
       </c>
       <c r="I8">
-        <v>9.317389113658294</v>
+        <v>0.02173377538154053</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.147758426183174</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.161538599422641</v>
       </c>
       <c r="L8">
-        <v>0.2269906779110045</v>
+        <v>0.04751787345890079</v>
       </c>
       <c r="M8">
-        <v>0.4575076033414547</v>
+        <v>0.876820860482951</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3619188596185694</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.497993594329898</v>
+        <v>0.911723632178024</v>
       </c>
       <c r="C9">
-        <v>2.287827346157712</v>
+        <v>0.2804209409016778</v>
       </c>
       <c r="D9">
-        <v>0.2621715351827447</v>
+        <v>0.4870025941376355</v>
       </c>
       <c r="E9">
-        <v>0.06495894528193347</v>
+        <v>0.1669699125908437</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007751370731785935</v>
+        <v>2.157153930578971</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01260333175728789</v>
       </c>
       <c r="I9">
-        <v>12.37635033308752</v>
+        <v>0.01154125131473727</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.300779453960729</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.331560736840274</v>
       </c>
       <c r="L9">
-        <v>0.2913420934400506</v>
+        <v>0.06541922476444739</v>
       </c>
       <c r="M9">
-        <v>0.6279687035378601</v>
+        <v>1.177950252983834</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4809133323765096</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.356620496566507</v>
+        <v>1.086798399913363</v>
       </c>
       <c r="C10">
-        <v>2.827324100330145</v>
+        <v>0.3332833381447529</v>
       </c>
       <c r="D10">
-        <v>0.3236616114364352</v>
+        <v>0.5502682205126916</v>
       </c>
       <c r="E10">
-        <v>0.07964198680479484</v>
+        <v>0.1871839027029409</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007462487364801154</v>
+        <v>2.353563401425532</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.007250819498398009</v>
       </c>
       <c r="I10">
-        <v>14.83467372786103</v>
+        <v>0.00678448436249024</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.387271350591817</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.424096521032808</v>
       </c>
       <c r="L10">
-        <v>0.3436345711360786</v>
+        <v>0.07330120752136793</v>
       </c>
       <c r="M10">
-        <v>0.7708624483648876</v>
+        <v>1.40301998081452</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5593529290740378</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.785658447407286</v>
+        <v>1.198368594966752</v>
       </c>
       <c r="C11">
-        <v>3.091149252044829</v>
+        <v>0.3370435215091732</v>
       </c>
       <c r="D11">
-        <v>0.3536584673919236</v>
+        <v>0.4819644518109385</v>
       </c>
       <c r="E11">
-        <v>0.08690983873875524</v>
+        <v>0.1342641680380368</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007327767375709436</v>
+        <v>2.032186405324893</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0257707193552541</v>
       </c>
       <c r="I11">
-        <v>16.02471187756311</v>
+        <v>0.006470710738128993</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.219983361228856</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.224060380832242</v>
       </c>
       <c r="L11">
-        <v>0.3690543196627232</v>
+        <v>0.03790623944448157</v>
       </c>
       <c r="M11">
-        <v>0.8417195570862575</v>
+        <v>1.510256207048997</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5099476119706452</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.95522299249177</v>
+        <v>1.258619154216063</v>
       </c>
       <c r="C12">
-        <v>3.194469986503293</v>
+        <v>0.3264432528771124</v>
       </c>
       <c r="D12">
-        <v>0.3653924053604811</v>
+        <v>0.4153634450092056</v>
       </c>
       <c r="E12">
-        <v>0.08977368805941666</v>
+        <v>0.09414916423232711</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007276015837161401</v>
+        <v>1.75419110434143</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06496943433710811</v>
       </c>
       <c r="I12">
-        <v>16.48862172539577</v>
+        <v>0.006456839567967165</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.077550046428485</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.059439256211746</v>
       </c>
       <c r="L12">
-        <v>0.378976417319862</v>
+        <v>0.02118966706307379</v>
       </c>
       <c r="M12">
-        <v>0.8696267114088982</v>
+        <v>1.551862346513985</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4537384593786911</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.918358183992609</v>
+        <v>1.280929221793485</v>
       </c>
       <c r="C13">
-        <v>3.172051228100997</v>
+        <v>0.3064889527117884</v>
       </c>
       <c r="D13">
-        <v>0.3628470110239732</v>
+        <v>0.346528933522734</v>
       </c>
       <c r="E13">
-        <v>0.08915141204319355</v>
+        <v>0.06168049647598295</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007287199221153159</v>
+        <v>1.47960094485444</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1218318610966094</v>
       </c>
       <c r="I13">
-        <v>16.38806365267135</v>
+        <v>0.00710183602225456</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.938823885066455</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9027493357758445</v>
       </c>
       <c r="L13">
-        <v>0.3768251638320521</v>
+        <v>0.01771593328370979</v>
       </c>
       <c r="M13">
-        <v>0.8635640827270734</v>
+        <v>1.546382875286952</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3898448600631781</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.799455622922778</v>
+        <v>1.279098947587727</v>
       </c>
       <c r="C14">
-        <v>3.099575786838045</v>
+        <v>0.2888601633552241</v>
       </c>
       <c r="D14">
-        <v>0.3546157432720065</v>
+        <v>0.2983874196504388</v>
       </c>
       <c r="E14">
-        <v>0.08714302439041788</v>
+        <v>0.04376834726454604</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007323526277813304</v>
+        <v>1.291038962593774</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1722453720356327</v>
       </c>
       <c r="I14">
-        <v>16.06259202197657</v>
+        <v>0.007989968915760315</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8443091543816195</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7978346098915594</v>
       </c>
       <c r="L14">
-        <v>0.3698642626503954</v>
+        <v>0.02320132455779245</v>
       </c>
       <c r="M14">
-        <v>0.8439923522837134</v>
+        <v>1.521608737303353</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3425244689465288</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.727603567393771</v>
+        <v>1.269900609998331</v>
       </c>
       <c r="C15">
-        <v>3.055654209970385</v>
+        <v>0.2831780840798217</v>
       </c>
       <c r="D15">
-        <v>0.3496255773932972</v>
+        <v>0.2857329672317093</v>
       </c>
       <c r="E15">
-        <v>0.08592832513521742</v>
+        <v>0.0399386578118559</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007345672708974396</v>
+        <v>1.241143787650543</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1852301211742571</v>
       </c>
       <c r="I15">
-        <v>15.86506173811796</v>
+        <v>0.008518815043359496</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.8197376139144694</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7707717796762452</v>
       </c>
       <c r="L15">
-        <v>0.3656412170104346</v>
+        <v>0.02541742411185766</v>
       </c>
       <c r="M15">
-        <v>0.8321522623593438</v>
+        <v>1.505898566692736</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3292465098568087</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.329478983502213</v>
+        <v>1.188238008350055</v>
       </c>
       <c r="C16">
-        <v>2.810513502010451</v>
+        <v>0.2656888705583924</v>
       </c>
       <c r="D16">
-        <v>0.3217485881452973</v>
+        <v>0.2744641347512413</v>
       </c>
       <c r="E16">
-        <v>0.07918097936986257</v>
+        <v>0.03898908751005514</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007471204545703619</v>
+        <v>1.213339723387605</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1748027866880193</v>
       </c>
       <c r="I16">
-        <v>14.75857891733699</v>
+        <v>0.01052837296274678</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.8106505748608868</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7625527039285558</v>
       </c>
       <c r="L16">
-        <v>0.3420110363923783</v>
+        <v>0.0230794301363435</v>
       </c>
       <c r="M16">
-        <v>0.7663679598353355</v>
+        <v>1.410224828181413</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3106754001969776</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.096064714270653</v>
+        <v>1.126755046260399</v>
       </c>
       <c r="C17">
-        <v>2.665320983623531</v>
+        <v>0.2616840104523135</v>
       </c>
       <c r="D17">
-        <v>0.3052177415629131</v>
+        <v>0.2906551015759788</v>
       </c>
       <c r="E17">
-        <v>0.0752091487216191</v>
+        <v>0.04678826364897759</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007547204896940381</v>
+        <v>1.289016089292957</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1382552793039338</v>
       </c>
       <c r="I17">
-        <v>14.10001003546876</v>
+        <v>0.01165547094666053</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.8524511018476062</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8099762493353566</v>
       </c>
       <c r="L17">
-        <v>0.327971209853942</v>
+        <v>0.01700814516379623</v>
       </c>
       <c r="M17">
-        <v>0.727656177692019</v>
+        <v>1.350243928768862</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3209873538986372</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.965313102485311</v>
+        <v>1.076847566360584</v>
       </c>
       <c r="C18">
-        <v>2.583485531941903</v>
+        <v>0.2675532891204</v>
       </c>
       <c r="D18">
-        <v>0.2958940321422858</v>
+        <v>0.3347659495742477</v>
       </c>
       <c r="E18">
-        <v>0.07297802475243742</v>
+        <v>0.06740501411452016</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007590626410764666</v>
+        <v>1.479087992748589</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08547537445517861</v>
       </c>
       <c r="I18">
-        <v>13.72775331764689</v>
+        <v>0.01162620726141306</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9510418751164593</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9218692230680148</v>
       </c>
       <c r="L18">
-        <v>0.3200449285628082</v>
+        <v>0.01413861421745688</v>
       </c>
       <c r="M18">
-        <v>0.7059239193570619</v>
+        <v>1.313113841861139</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3586295033095581</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.921603871162972</v>
+        <v>1.038892827823105</v>
       </c>
       <c r="C19">
-        <v>2.556045323304716</v>
+        <v>0.2836366435135744</v>
       </c>
       <c r="D19">
-        <v>0.2927666871255781</v>
+        <v>0.4020956904667088</v>
       </c>
       <c r="E19">
-        <v>0.07223107773409865</v>
+        <v>0.1035134755275706</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007605284817104314</v>
+        <v>1.751808342340553</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03898132978312674</v>
       </c>
       <c r="I19">
-        <v>13.60275907208214</v>
+        <v>0.01121301806007047</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.089895419797699</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.080180577501991</v>
       </c>
       <c r="L19">
-        <v>0.3173852207971635</v>
+        <v>0.02467508930410389</v>
       </c>
       <c r="M19">
-        <v>0.6986513855877945</v>
+        <v>1.298924032605555</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4185100732617926</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.120539723283798</v>
+        <v>1.038241423982214</v>
       </c>
       <c r="C20">
-        <v>2.680598717206522</v>
+        <v>0.3236172784860685</v>
       </c>
       <c r="D20">
-        <v>0.3069578651386564</v>
+        <v>0.5328710466111772</v>
       </c>
       <c r="E20">
-        <v>0.07562626411153417</v>
+        <v>0.1813676983802424</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007539146382810083</v>
+        <v>2.271041392868909</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0085238178449627</v>
       </c>
       <c r="I20">
-        <v>14.16942075874638</v>
+        <v>0.008802884965231073</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.34891026378304</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.378788526193631</v>
       </c>
       <c r="L20">
-        <v>0.3294499552304444</v>
+        <v>0.07081739964530698</v>
       </c>
       <c r="M20">
-        <v>0.7317204004238107</v>
+        <v>1.346529872276534</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5389082972152082</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.834172590592175</v>
+        <v>1.167748046252029</v>
       </c>
       <c r="C21">
-        <v>3.120763546843193</v>
+        <v>0.3682909586035521</v>
       </c>
       <c r="D21">
-        <v>0.3570224998244242</v>
+        <v>0.5997694940577958</v>
       </c>
       <c r="E21">
-        <v>0.08772964566612984</v>
+        <v>0.2092298997799205</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007312878591539832</v>
+        <v>2.501796873633538</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004613172447101022</v>
       </c>
       <c r="I21">
-        <v>16.15780288153024</v>
+        <v>0.005607876364581266</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.455587232880106</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.497086106865041</v>
       </c>
       <c r="L21">
-        <v>0.3719002279493964</v>
+        <v>0.08597628925524248</v>
       </c>
       <c r="M21">
-        <v>0.8497096438477953</v>
+        <v>1.51944394089486</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6149283243653585</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.343071965556533</v>
+        <v>1.255647228107534</v>
       </c>
       <c r="C22">
-        <v>3.428898821041741</v>
+        <v>0.3948883545703552</v>
       </c>
       <c r="D22">
-        <v>0.3919868082107314</v>
+        <v>0.6380063151964634</v>
       </c>
       <c r="E22">
-        <v>0.09631063839748322</v>
+        <v>0.2235860676207722</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007160523500437414</v>
+        <v>2.641024102709082</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.00285014628028768</v>
       </c>
       <c r="I22">
-        <v>17.5367499225153</v>
+        <v>0.003773057371668109</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.519509019857139</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.568475227144972</v>
       </c>
       <c r="L22">
-        <v>0.4014136670481747</v>
+        <v>0.09316016581382058</v>
       </c>
       <c r="M22">
-        <v>0.9332562030351852</v>
+        <v>1.632329529099906</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6595316967987372</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.066914679469107</v>
+        <v>1.209732266768839</v>
       </c>
       <c r="C23">
-        <v>3.262246613008244</v>
+        <v>0.3789163657022812</v>
       </c>
       <c r="D23">
-        <v>0.3730854213200416</v>
+        <v>0.6176612062510856</v>
       </c>
       <c r="E23">
-        <v>0.09165794882363087</v>
+        <v>0.2159791117947663</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007242356731523602</v>
+        <v>2.577705536850488</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003724473260700023</v>
       </c>
       <c r="I23">
-        <v>16.79228593420697</v>
+        <v>0.004356381111009</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.490935301156156</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.537971014556135</v>
       </c>
       <c r="L23">
-        <v>0.3854743545070107</v>
+        <v>0.08936600768823411</v>
       </c>
       <c r="M23">
-        <v>0.8879794186414784</v>
+        <v>1.570927088595738</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6354585116140257</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.109463963898804</v>
+        <v>1.034778750096962</v>
       </c>
       <c r="C24">
-        <v>2.673686607504862</v>
+        <v>0.322365644570624</v>
       </c>
       <c r="D24">
-        <v>0.3061706002575875</v>
+        <v>0.5410665183140395</v>
       </c>
       <c r="E24">
-        <v>0.07543752514603597</v>
+        <v>0.1872525495802648</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007542790466143366</v>
+        <v>2.321650912611716</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.008213261240557546</v>
       </c>
       <c r="I24">
-        <v>14.13802056067209</v>
+        <v>0.008187176616449854</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.374550639338196</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.410547413548201</v>
       </c>
       <c r="L24">
-        <v>0.3287809659370851</v>
+        <v>0.07519795961871267</v>
       </c>
       <c r="M24">
-        <v>0.7298813508029696</v>
+        <v>1.341836217890517</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5452566533394361</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.207665473860402</v>
+        <v>0.8470720494669308</v>
       </c>
       <c r="C25">
-        <v>2.101428836219782</v>
+        <v>0.2633667440755971</v>
       </c>
       <c r="D25">
-        <v>0.2408815183374031</v>
+        <v>0.4595147770375831</v>
       </c>
       <c r="E25">
-        <v>0.05993323314524801</v>
+        <v>0.1565706328554697</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007856199032852728</v>
+        <v>2.048844450723038</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01530826244943739</v>
       </c>
       <c r="I25">
-        <v>11.51899267175335</v>
+        <v>0.01443316793832672</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.250807727551944</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.27414539699231</v>
       </c>
       <c r="L25">
-        <v>0.2732041948140562</v>
+        <v>0.06042554584787041</v>
       </c>
       <c r="M25">
-        <v>0.579310822829278</v>
+        <v>1.097659930101088</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.4489423970374204</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7117402127006187</v>
+        <v>0.6874458076252097</v>
       </c>
       <c r="C2">
-        <v>0.21719957454998</v>
+        <v>0.2862923734493279</v>
       </c>
       <c r="D2">
-        <v>0.4003726769849294</v>
+        <v>0.4031957326941438</v>
       </c>
       <c r="E2">
-        <v>0.1342905804469368</v>
+        <v>0.1361976513292227</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.87676346335499</v>
+        <v>1.442630317945955</v>
       </c>
       <c r="H2">
-        <v>0.02218689393390871</v>
+        <v>0.01894085880241025</v>
       </c>
       <c r="I2">
-        <v>0.01970785119033014</v>
+        <v>0.01382826496888701</v>
       </c>
       <c r="J2">
-        <v>1.174407584191869</v>
+        <v>0.9444260131906503</v>
       </c>
       <c r="K2">
-        <v>1.192687984463831</v>
+        <v>0.8786747521722589</v>
       </c>
       <c r="L2">
-        <v>0.04999149822740989</v>
+        <v>0.3557939423833432</v>
       </c>
       <c r="M2">
-        <v>0.9170858297904374</v>
+        <v>0.3031901855871837</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05156926643801896</v>
       </c>
       <c r="O2">
-        <v>0.3780379479022855</v>
+        <v>0.9649466813564516</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3894048618923662</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6187597122920181</v>
+        <v>0.5996906119005416</v>
       </c>
       <c r="C3">
-        <v>0.1889992927175683</v>
+        <v>0.248204725366179</v>
       </c>
       <c r="D3">
-        <v>0.3604834194494089</v>
+        <v>0.3640757786687772</v>
       </c>
       <c r="E3">
-        <v>0.1191573387941638</v>
+        <v>0.1215512098828775</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.74546187791023</v>
+        <v>1.369139176697885</v>
       </c>
       <c r="H3">
-        <v>0.02786044053841841</v>
+        <v>0.02378245846611748</v>
       </c>
       <c r="I3">
-        <v>0.02465508817272699</v>
+        <v>0.01733847959356227</v>
       </c>
       <c r="J3">
-        <v>1.115291569351484</v>
+        <v>0.9044858580876962</v>
       </c>
       <c r="K3">
-        <v>1.126907214996962</v>
+        <v>0.8476046376110986</v>
       </c>
       <c r="L3">
-        <v>0.04300611980563218</v>
+        <v>0.3513429319758785</v>
       </c>
       <c r="M3">
-        <v>0.7970491014287688</v>
+        <v>0.2860252578973679</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.04483239042541598</v>
       </c>
       <c r="O3">
-        <v>0.330579735261054</v>
+        <v>0.8378626994069123</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3403790412489016</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5616440917291925</v>
+        <v>0.5456517418413114</v>
       </c>
       <c r="C4">
-        <v>0.1720575288835704</v>
+        <v>0.2253067194724991</v>
       </c>
       <c r="D4">
-        <v>0.3361121541323371</v>
+        <v>0.3401757828166865</v>
       </c>
       <c r="E4">
-        <v>0.1098752497023092</v>
+        <v>0.1125587763316034</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.664640095241694</v>
+        <v>1.323877386333933</v>
       </c>
       <c r="H4">
-        <v>0.03179817551011843</v>
+        <v>0.02714611200745431</v>
       </c>
       <c r="I4">
-        <v>0.0281171561973883</v>
+        <v>0.01981834187789744</v>
       </c>
       <c r="J4">
-        <v>1.078941404971715</v>
+        <v>0.8795580586007361</v>
       </c>
       <c r="K4">
-        <v>1.086185082785128</v>
+        <v>0.8281285621263663</v>
       </c>
       <c r="L4">
-        <v>0.03877598949150141</v>
+        <v>0.3482074229545233</v>
       </c>
       <c r="M4">
-        <v>0.7237084708664838</v>
+        <v>0.2761243638105952</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04072814302404737</v>
       </c>
       <c r="O4">
-        <v>0.3015433262084031</v>
+        <v>0.7601174740869112</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3103663003129284</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.538115205275318</v>
+        <v>0.5233756976987252</v>
       </c>
       <c r="C5">
-        <v>0.165662347143325</v>
+        <v>0.2165131379176159</v>
       </c>
       <c r="D5">
-        <v>0.3261834911047572</v>
+        <v>0.3304424680852236</v>
       </c>
       <c r="E5">
-        <v>0.1060777848454961</v>
+        <v>0.1088792233606597</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.62885154426624</v>
+        <v>1.303285691676834</v>
       </c>
       <c r="H5">
-        <v>0.03352289489349247</v>
+        <v>0.02861949161038368</v>
       </c>
       <c r="I5">
-        <v>0.02973435097921584</v>
+        <v>0.02101859700983244</v>
       </c>
       <c r="J5">
-        <v>1.062688476717767</v>
+        <v>0.8681885118824368</v>
       </c>
       <c r="K5">
-        <v>1.06757315704705</v>
+        <v>0.8186897675367177</v>
       </c>
       <c r="L5">
-        <v>0.03705390067758785</v>
+        <v>0.346233426667709</v>
       </c>
       <c r="M5">
-        <v>0.6941726141290445</v>
+        <v>0.2717967445083822</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.03905214076882757</v>
       </c>
       <c r="O5">
-        <v>0.2897926554395767</v>
+        <v>0.7287407600526876</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2982081224967388</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5339118784176264</v>
+        <v>0.519415312937042</v>
       </c>
       <c r="C6">
-        <v>0.1651231889031095</v>
+        <v>0.2155780770064979</v>
       </c>
       <c r="D6">
-        <v>0.3245079489310143</v>
+        <v>0.3288031384414865</v>
       </c>
       <c r="E6">
-        <v>0.1054282635615635</v>
+        <v>0.1082514220426809</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.619495454764547</v>
+        <v>1.297295718934805</v>
       </c>
       <c r="H6">
-        <v>0.03382816914304865</v>
+        <v>0.02887941796631921</v>
       </c>
       <c r="I6">
-        <v>0.03014305033523357</v>
+        <v>0.02136710791115881</v>
       </c>
       <c r="J6">
-        <v>1.058251662667402</v>
+        <v>0.8649404010109976</v>
       </c>
       <c r="K6">
-        <v>1.062120518042015</v>
+        <v>0.8154073597191669</v>
       </c>
       <c r="L6">
-        <v>0.03675526084880687</v>
+        <v>0.3451743673226275</v>
       </c>
       <c r="M6">
-        <v>0.689606931690065</v>
+        <v>0.2705350890134604</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03876200721898471</v>
       </c>
       <c r="O6">
-        <v>0.287916936929534</v>
+        <v>0.7238331440082675</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2962562631625687</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5605155755900739</v>
+        <v>0.5449171447696699</v>
       </c>
       <c r="C7">
-        <v>0.173386261819843</v>
+        <v>0.2259664902678082</v>
       </c>
       <c r="D7">
-        <v>0.3359008822035747</v>
+        <v>0.3399711630914339</v>
       </c>
       <c r="E7">
-        <v>0.1097722227295073</v>
+        <v>0.1124594533313115</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.65483630393706</v>
+        <v>1.319180569552429</v>
       </c>
       <c r="H7">
-        <v>0.03185323957359421</v>
+        <v>0.02720741330619081</v>
       </c>
       <c r="I7">
-        <v>0.02848526651130801</v>
+        <v>0.02022528182843253</v>
       </c>
       <c r="J7">
-        <v>1.07397782604329</v>
+        <v>0.8663681786418493</v>
       </c>
       <c r="K7">
-        <v>1.079491411910944</v>
+        <v>0.8210664218686361</v>
       </c>
       <c r="L7">
-        <v>0.03871560810048891</v>
+        <v>0.3452828830273091</v>
       </c>
       <c r="M7">
-        <v>0.7242228846795058</v>
+        <v>0.2737775364200026</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.0406685859460687</v>
       </c>
       <c r="O7">
-        <v>0.3015878230968667</v>
+        <v>0.760109627538867</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3102948558808905</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6785897884325038</v>
+        <v>0.6571866113291946</v>
       </c>
       <c r="C8">
-        <v>0.2092771387291634</v>
+        <v>0.272791289978386</v>
       </c>
       <c r="D8">
-        <v>0.3864892504305857</v>
+        <v>0.3895754526253228</v>
       </c>
       <c r="E8">
-        <v>0.1290003454589623</v>
+        <v>0.131074689754584</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.819167879224977</v>
+        <v>1.416823595057735</v>
       </c>
       <c r="H8">
-        <v>0.0240819989784169</v>
+        <v>0.02059944511552281</v>
       </c>
       <c r="I8">
-        <v>0.02173377538154053</v>
+        <v>0.01546316864794051</v>
       </c>
       <c r="J8">
-        <v>1.147758426183174</v>
+        <v>0.8952391369404324</v>
       </c>
       <c r="K8">
-        <v>1.161538599422641</v>
+        <v>0.8544908909243674</v>
       </c>
       <c r="L8">
-        <v>0.04751787345890079</v>
+        <v>0.3489434864797261</v>
       </c>
       <c r="M8">
-        <v>0.876820860482951</v>
+        <v>0.292398619593186</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.04918133017865145</v>
       </c>
       <c r="O8">
-        <v>0.3619188596185694</v>
+        <v>0.9207856338419447</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3724213647842021</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.911723632178024</v>
+        <v>0.8765910694247623</v>
       </c>
       <c r="C9">
-        <v>0.2804209409016778</v>
+        <v>0.3686121501944797</v>
       </c>
       <c r="D9">
-        <v>0.4870025941376355</v>
+        <v>0.4881274769824984</v>
       </c>
       <c r="E9">
-        <v>0.1669699125908437</v>
+        <v>0.1677534572927755</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.157153930578971</v>
+        <v>1.610735561386235</v>
       </c>
       <c r="H9">
-        <v>0.01260333175728789</v>
+        <v>0.01081236799722848</v>
       </c>
       <c r="I9">
-        <v>0.01154125131473727</v>
+        <v>0.008211801644019801</v>
       </c>
       <c r="J9">
-        <v>1.300779453960729</v>
+        <v>0.9886277271489803</v>
       </c>
       <c r="K9">
-        <v>1.331560736840274</v>
+        <v>0.9334303920994529</v>
       </c>
       <c r="L9">
-        <v>0.06541922476444739</v>
+        <v>0.3596248312174097</v>
       </c>
       <c r="M9">
-        <v>1.177950252983834</v>
+        <v>0.339685955547175</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.06628121273415388</v>
       </c>
       <c r="O9">
-        <v>0.4809133323765096</v>
+        <v>1.238645229663575</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.495154301578367</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.086798399913363</v>
+        <v>1.043068525355125</v>
       </c>
       <c r="C10">
-        <v>0.3332833381447529</v>
+        <v>0.4344160336237906</v>
       </c>
       <c r="D10">
-        <v>0.5502682205126916</v>
+        <v>0.5499745809997023</v>
       </c>
       <c r="E10">
-        <v>0.1871839027029409</v>
+        <v>0.1870112295607314</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.353563401425532</v>
+        <v>1.733393633136984</v>
       </c>
       <c r="H10">
-        <v>0.007250819498398009</v>
+        <v>0.006319047720735327</v>
       </c>
       <c r="I10">
-        <v>0.00678448436249024</v>
+        <v>0.005033034741417808</v>
       </c>
       <c r="J10">
-        <v>1.387271350591817</v>
+        <v>0.9857438772733076</v>
       </c>
       <c r="K10">
-        <v>1.424096521032808</v>
+        <v>0.9575520003302387</v>
       </c>
       <c r="L10">
-        <v>0.07330120752136793</v>
+        <v>0.3541353203466642</v>
       </c>
       <c r="M10">
-        <v>1.40301998081452</v>
+        <v>0.3650052782752411</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.07346740325235857</v>
       </c>
       <c r="O10">
-        <v>0.5593529290740378</v>
+        <v>1.472030295954113</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5753133572089411</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.198368594966752</v>
+        <v>1.159630484008545</v>
       </c>
       <c r="C11">
-        <v>0.3370435215091732</v>
+        <v>0.4215754022614817</v>
       </c>
       <c r="D11">
-        <v>0.4819644518109385</v>
+        <v>0.481785523439072</v>
       </c>
       <c r="E11">
-        <v>0.1342641680380368</v>
+        <v>0.1343156361342537</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.032186405324893</v>
+        <v>1.530617272494879</v>
       </c>
       <c r="H11">
-        <v>0.0257707193552541</v>
+        <v>0.02494125938893887</v>
       </c>
       <c r="I11">
-        <v>0.006470710738128993</v>
+        <v>0.005122720775541545</v>
       </c>
       <c r="J11">
-        <v>1.219983361228856</v>
+        <v>0.7758481274817512</v>
       </c>
       <c r="K11">
-        <v>1.224060380832242</v>
+        <v>0.8010986035212397</v>
       </c>
       <c r="L11">
-        <v>0.03790623944448157</v>
+        <v>0.2933050047842798</v>
       </c>
       <c r="M11">
-        <v>1.510256207048997</v>
+        <v>0.3098980117882562</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.03844580030238376</v>
       </c>
       <c r="O11">
-        <v>0.5099476119706452</v>
+        <v>1.5711749451701</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5229473744243123</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.258619154216063</v>
+        <v>1.225219172762479</v>
       </c>
       <c r="C12">
-        <v>0.3264432528771124</v>
+        <v>0.3969996383056866</v>
       </c>
       <c r="D12">
-        <v>0.4153634450092056</v>
+        <v>0.4155078391231086</v>
       </c>
       <c r="E12">
-        <v>0.09414916423232711</v>
+        <v>0.09451238874077106</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.75419110434143</v>
+        <v>1.345309570656354</v>
       </c>
       <c r="H12">
-        <v>0.06496943433710811</v>
+        <v>0.06409820709473735</v>
       </c>
       <c r="I12">
-        <v>0.006456839567967165</v>
+        <v>0.005106386793240603</v>
       </c>
       <c r="J12">
-        <v>1.077550046428485</v>
+        <v>0.6526922653466443</v>
       </c>
       <c r="K12">
-        <v>1.059439256211746</v>
+        <v>0.6896588332357041</v>
       </c>
       <c r="L12">
-        <v>0.02118966706307379</v>
+        <v>0.2530987559647677</v>
       </c>
       <c r="M12">
-        <v>1.551862346513985</v>
+        <v>0.267144900983439</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.02210134006401532</v>
       </c>
       <c r="O12">
-        <v>0.4537384593786911</v>
+        <v>1.605606837839815</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4644247633742395</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.280929221793485</v>
+        <v>1.252637108913035</v>
       </c>
       <c r="C13">
-        <v>0.3064889527117884</v>
+        <v>0.36577918884052</v>
       </c>
       <c r="D13">
-        <v>0.346528933522734</v>
+        <v>0.3471436347310402</v>
       </c>
       <c r="E13">
-        <v>0.06168049647598295</v>
+        <v>0.06243191478328036</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.47960094485444</v>
+        <v>1.148235698243568</v>
       </c>
       <c r="H13">
-        <v>0.1218318610966094</v>
+        <v>0.1207758508277834</v>
       </c>
       <c r="I13">
-        <v>0.00710183602225456</v>
+        <v>0.00549312039669303</v>
       </c>
       <c r="J13">
-        <v>0.938823885066455</v>
+        <v>0.5842359378564908</v>
       </c>
       <c r="K13">
-        <v>0.9027493357758445</v>
+        <v>0.6002533962475383</v>
       </c>
       <c r="L13">
-        <v>0.01771593328370979</v>
+        <v>0.2229793362773265</v>
       </c>
       <c r="M13">
-        <v>1.546382875286952</v>
+        <v>0.2301280186103121</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.01903984234008593</v>
       </c>
       <c r="O13">
-        <v>0.3898448600631781</v>
+        <v>1.594360837632877</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3986786434199203</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.279098947587727</v>
+        <v>1.254273278652732</v>
       </c>
       <c r="C14">
-        <v>0.2888601633552241</v>
+        <v>0.3413415360892031</v>
       </c>
       <c r="D14">
-        <v>0.2983874196504388</v>
+        <v>0.2993729372719685</v>
       </c>
       <c r="E14">
-        <v>0.04376834726454604</v>
+        <v>0.0448099093167702</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.291038962593774</v>
+        <v>1.008077083553474</v>
       </c>
       <c r="H14">
-        <v>0.1722453720356327</v>
+        <v>0.1709846041568568</v>
       </c>
       <c r="I14">
-        <v>0.007989968915760315</v>
+        <v>0.006082463277580885</v>
       </c>
       <c r="J14">
-        <v>0.8443091543816195</v>
+        <v>0.5546683180129008</v>
       </c>
       <c r="K14">
-        <v>0.7978346098915594</v>
+        <v>0.5462146090119404</v>
       </c>
       <c r="L14">
-        <v>0.02320132455779245</v>
+        <v>0.2055604351918063</v>
       </c>
       <c r="M14">
-        <v>1.521608737303353</v>
+        <v>0.2066613470786223</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.02481850965281573</v>
       </c>
       <c r="O14">
-        <v>0.3425244689465288</v>
+        <v>1.566084441744749</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3502228236570772</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.269900609998331</v>
+        <v>1.245890743879613</v>
       </c>
       <c r="C15">
-        <v>0.2831780840798217</v>
+        <v>0.3343411745786966</v>
       </c>
       <c r="D15">
-        <v>0.2857329672317093</v>
+        <v>0.286846812282306</v>
       </c>
       <c r="E15">
-        <v>0.0399386578118559</v>
+        <v>0.04107624514459118</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.241143787650543</v>
+        <v>0.969477028633662</v>
       </c>
       <c r="H15">
-        <v>0.1852301211742571</v>
+        <v>0.1838767179924474</v>
       </c>
       <c r="I15">
-        <v>0.008518815043359496</v>
+        <v>0.006491047480876588</v>
       </c>
       <c r="J15">
-        <v>0.8197376139144694</v>
+        <v>0.5534267102726176</v>
       </c>
       <c r="K15">
-        <v>0.7707717796762452</v>
+        <v>0.5344280578013354</v>
       </c>
       <c r="L15">
-        <v>0.02541742411185766</v>
+        <v>0.2020629927518698</v>
       </c>
       <c r="M15">
-        <v>1.505898566692736</v>
+        <v>0.2010989247894344</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.02712647033566995</v>
       </c>
       <c r="O15">
-        <v>0.3292465098568087</v>
+        <v>1.549726237429581</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3367051865471566</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.188238008350055</v>
+        <v>1.163926212656662</v>
       </c>
       <c r="C16">
-        <v>0.2656888705583924</v>
+        <v>0.3192815290736064</v>
       </c>
       <c r="D16">
-        <v>0.2744641347512413</v>
+        <v>0.2759863989299731</v>
       </c>
       <c r="E16">
-        <v>0.03898908751005514</v>
+        <v>0.04040614210184401</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.213339723387605</v>
+        <v>0.9384257039200605</v>
       </c>
       <c r="H16">
-        <v>0.1748027866880193</v>
+        <v>0.1730266447568454</v>
       </c>
       <c r="I16">
-        <v>0.01052837296274678</v>
+        <v>0.007860675773345704</v>
       </c>
       <c r="J16">
-        <v>0.8106505748608868</v>
+        <v>0.611879786644522</v>
       </c>
       <c r="K16">
-        <v>0.7625527039285558</v>
+        <v>0.5512146332140517</v>
       </c>
       <c r="L16">
-        <v>0.0230794301363435</v>
+        <v>0.2107240260197258</v>
       </c>
       <c r="M16">
-        <v>1.410224828181413</v>
+        <v>0.2038584448932426</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.02501403220976783</v>
       </c>
       <c r="O16">
-        <v>0.3106754001969776</v>
+        <v>1.455776139638346</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.318407726377032</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.126755046260399</v>
+        <v>1.100947150084522</v>
       </c>
       <c r="C17">
-        <v>0.2616840104523135</v>
+        <v>0.3198959520251776</v>
       </c>
       <c r="D17">
-        <v>0.2906551015759788</v>
+        <v>0.2923248196011627</v>
       </c>
       <c r="E17">
-        <v>0.04678826364897759</v>
+        <v>0.04827659959092756</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.289016089292957</v>
+        <v>0.9886330121959475</v>
       </c>
       <c r="H17">
-        <v>0.1382552793039338</v>
+        <v>0.1362682676103759</v>
       </c>
       <c r="I17">
-        <v>0.01165547094666053</v>
+        <v>0.008658163801261054</v>
       </c>
       <c r="J17">
-        <v>0.8524511018476062</v>
+        <v>0.6704821851127747</v>
       </c>
       <c r="K17">
-        <v>0.8099762493353566</v>
+        <v>0.5915367812362291</v>
       </c>
       <c r="L17">
-        <v>0.01700814516379623</v>
+        <v>0.2268535324933083</v>
       </c>
       <c r="M17">
-        <v>1.350243928768862</v>
+        <v>0.2173592567467395</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.01894921826910334</v>
       </c>
       <c r="O17">
-        <v>0.3209873538986372</v>
+        <v>1.39823076451583</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3294535134389847</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.076847566360584</v>
+        <v>1.047703185771923</v>
       </c>
       <c r="C18">
-        <v>0.2675532891204</v>
+        <v>0.3343593203778994</v>
       </c>
       <c r="D18">
-        <v>0.3347659495742477</v>
+        <v>0.3363395371556948</v>
       </c>
       <c r="E18">
-        <v>0.06740501411452016</v>
+        <v>0.06877166502140852</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.479087992748589</v>
+        <v>1.120936440449881</v>
       </c>
       <c r="H18">
-        <v>0.08547537445517861</v>
+        <v>0.08348557000234536</v>
       </c>
       <c r="I18">
-        <v>0.01162620726141306</v>
+        <v>0.008536268254250245</v>
       </c>
       <c r="J18">
-        <v>0.9510418751164593</v>
+        <v>0.7535166272975005</v>
       </c>
       <c r="K18">
-        <v>0.9218692230680148</v>
+        <v>0.6675385768546178</v>
       </c>
       <c r="L18">
-        <v>0.01413861421745688</v>
+        <v>0.2553757777100891</v>
       </c>
       <c r="M18">
-        <v>1.313113841861139</v>
+        <v>0.2454790593394627</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.01589483154387938</v>
       </c>
       <c r="O18">
-        <v>0.3586295033095581</v>
+        <v>1.3654963485194</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3685733234257142</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.038892827823105</v>
+        <v>1.00526377071094</v>
       </c>
       <c r="C19">
-        <v>0.2836366435135744</v>
+        <v>0.3624225695809287</v>
       </c>
       <c r="D19">
-        <v>0.4020956904667088</v>
+        <v>0.4033360968454929</v>
       </c>
       <c r="E19">
-        <v>0.1035134755275706</v>
+        <v>0.1045650865916414</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.751808342340553</v>
+        <v>1.309773064630178</v>
       </c>
       <c r="H19">
-        <v>0.03898132978312674</v>
+        <v>0.03718140950063287</v>
       </c>
       <c r="I19">
-        <v>0.01121301806007047</v>
+        <v>0.008348453184867211</v>
       </c>
       <c r="J19">
-        <v>1.089895419797699</v>
+        <v>0.855393390582222</v>
       </c>
       <c r="K19">
-        <v>1.080180577501991</v>
+        <v>0.7687708351178628</v>
       </c>
       <c r="L19">
-        <v>0.02467508930410389</v>
+        <v>0.2925153685285053</v>
       </c>
       <c r="M19">
-        <v>1.298924032605555</v>
+        <v>0.2840800612886483</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0260534614997372</v>
       </c>
       <c r="O19">
-        <v>0.4185100732617926</v>
+        <v>1.357071660932775</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.430548137351586</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.038241423982214</v>
+        <v>0.9962134845430057</v>
       </c>
       <c r="C20">
-        <v>0.3236172784860685</v>
+        <v>0.4237299361575992</v>
       </c>
       <c r="D20">
-        <v>0.5328710466111772</v>
+        <v>0.5330041343469532</v>
       </c>
       <c r="E20">
-        <v>0.1813676983802424</v>
+        <v>0.1814878963071038</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.271041392868909</v>
+        <v>1.668838817532247</v>
       </c>
       <c r="H20">
-        <v>0.0085238178449627</v>
+        <v>0.007357506249404455</v>
       </c>
       <c r="I20">
-        <v>0.008802884965231073</v>
+        <v>0.006789037928655262</v>
       </c>
       <c r="J20">
-        <v>1.34891026378304</v>
+        <v>1.006981880237305</v>
       </c>
       <c r="K20">
-        <v>1.378788526193631</v>
+        <v>0.9446436838119183</v>
       </c>
       <c r="L20">
-        <v>0.07081739964530698</v>
+        <v>0.3532031971765761</v>
       </c>
       <c r="M20">
-        <v>1.346529872276534</v>
+        <v>0.3556284156738769</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.07121709584068725</v>
       </c>
       <c r="O20">
-        <v>0.5389082972152082</v>
+        <v>1.41464997384773</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.554681359775671</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.167748046252029</v>
+        <v>1.123155881172153</v>
       </c>
       <c r="C21">
-        <v>0.3682909586035521</v>
+        <v>0.4684146516221972</v>
       </c>
       <c r="D21">
-        <v>0.5997694940577958</v>
+        <v>0.5986078953858396</v>
       </c>
       <c r="E21">
-        <v>0.2092298997799205</v>
+        <v>0.2084242495568702</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.501796873633538</v>
+        <v>1.871660076640637</v>
       </c>
       <c r="H21">
-        <v>0.004613172447101022</v>
+        <v>0.004112786487508124</v>
       </c>
       <c r="I21">
-        <v>0.005607876364581266</v>
+        <v>0.004719559480240498</v>
       </c>
       <c r="J21">
-        <v>1.455587232880106</v>
+        <v>0.8735835673729468</v>
       </c>
       <c r="K21">
-        <v>1.497086106865041</v>
+        <v>0.9520288482587205</v>
       </c>
       <c r="L21">
-        <v>0.08597628925524248</v>
+        <v>0.3453019758059241</v>
       </c>
       <c r="M21">
-        <v>1.51944394089486</v>
+        <v>0.3712555734388516</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.08555811582071016</v>
       </c>
       <c r="O21">
-        <v>0.6149283243653585</v>
+        <v>1.586706950318245</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6306745057813501</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.255647228107534</v>
+        <v>1.209920769733912</v>
       </c>
       <c r="C22">
-        <v>0.3948883545703552</v>
+        <v>0.4929354466710834</v>
       </c>
       <c r="D22">
-        <v>0.6380063151964634</v>
+        <v>0.6360307037757593</v>
       </c>
       <c r="E22">
-        <v>0.2235860676207722</v>
+        <v>0.2221989253730356</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.641024102709082</v>
+        <v>2.00411409538745</v>
       </c>
       <c r="H22">
-        <v>0.00285014628028768</v>
+        <v>0.002640290852619076</v>
       </c>
       <c r="I22">
-        <v>0.003773057371668109</v>
+        <v>0.003356096513439155</v>
       </c>
       <c r="J22">
-        <v>1.519509019857139</v>
+        <v>0.7813299885980598</v>
       </c>
       <c r="K22">
-        <v>1.568475227144972</v>
+        <v>0.9502932476579318</v>
       </c>
       <c r="L22">
-        <v>0.09316016581382058</v>
+        <v>0.3380139626948875</v>
       </c>
       <c r="M22">
-        <v>1.632329529099906</v>
+        <v>0.3791527476169065</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.092202565908309</v>
       </c>
       <c r="O22">
-        <v>0.6595316967987372</v>
+        <v>1.697688048315541</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6748769640773347</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.209732266768839</v>
+        <v>1.16370274328321</v>
       </c>
       <c r="C23">
-        <v>0.3789163657022812</v>
+        <v>0.4798869201661091</v>
       </c>
       <c r="D23">
-        <v>0.6176612062510856</v>
+        <v>0.616104975985678</v>
       </c>
       <c r="E23">
-        <v>0.2159791117947663</v>
+        <v>0.2148933341949046</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.577705536850488</v>
+        <v>1.933619142134631</v>
       </c>
       <c r="H23">
-        <v>0.003724473260700023</v>
+        <v>0.003364742503068063</v>
       </c>
       <c r="I23">
-        <v>0.004356381111009</v>
+        <v>0.003638585208346257</v>
       </c>
       <c r="J23">
-        <v>1.490935301156156</v>
+        <v>0.8528922914762092</v>
       </c>
       <c r="K23">
-        <v>1.537971014556135</v>
+        <v>0.9617759727575077</v>
       </c>
       <c r="L23">
-        <v>0.08936600768823411</v>
+        <v>0.3455141356314613</v>
       </c>
       <c r="M23">
-        <v>1.570927088595738</v>
+        <v>0.3791941033274</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.08869788066846951</v>
       </c>
       <c r="O23">
-        <v>0.6354585116140257</v>
+        <v>1.638601419706418</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6513089259573732</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.034778750096962</v>
+        <v>0.9921235769593579</v>
       </c>
       <c r="C24">
-        <v>0.322365644570624</v>
+        <v>0.4237917546166159</v>
       </c>
       <c r="D24">
-        <v>0.5410665183140395</v>
+        <v>0.5411289634282355</v>
       </c>
       <c r="E24">
-        <v>0.1872525495802648</v>
+        <v>0.1873090903057459</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.321650912611716</v>
+        <v>1.70417205644867</v>
       </c>
       <c r="H24">
-        <v>0.008213261240557546</v>
+        <v>0.007072524750201981</v>
       </c>
       <c r="I24">
-        <v>0.008187176616449854</v>
+        <v>0.006102848747778111</v>
       </c>
       <c r="J24">
-        <v>1.374550639338196</v>
+        <v>1.026802751366347</v>
       </c>
       <c r="K24">
-        <v>1.410547413548201</v>
+        <v>0.9658231334123997</v>
       </c>
       <c r="L24">
-        <v>0.07519795961871267</v>
+        <v>0.3610041634375918</v>
       </c>
       <c r="M24">
-        <v>1.341836217890517</v>
+        <v>0.3636720070818455</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.07552517072669218</v>
       </c>
       <c r="O24">
-        <v>0.5452566533394361</v>
+        <v>1.410679552176305</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5613192880562821</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8470720494669308</v>
+        <v>0.8156008788643589</v>
       </c>
       <c r="C25">
-        <v>0.2633667440755971</v>
+        <v>0.345758386714266</v>
       </c>
       <c r="D25">
-        <v>0.4595147770375831</v>
+        <v>0.4612041263796698</v>
       </c>
       <c r="E25">
-        <v>0.1565706328554697</v>
+        <v>0.1577336990965286</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.048844450723038</v>
+        <v>1.542019811364781</v>
       </c>
       <c r="H25">
-        <v>0.01530826244943739</v>
+        <v>0.01309967359152703</v>
       </c>
       <c r="I25">
-        <v>0.01443316793832672</v>
+        <v>0.01045614702634001</v>
       </c>
       <c r="J25">
-        <v>1.250807727551944</v>
+        <v>0.9703542403807717</v>
       </c>
       <c r="K25">
-        <v>1.27414539699231</v>
+        <v>0.9074216486720843</v>
       </c>
       <c r="L25">
-        <v>0.06042554584787041</v>
+        <v>0.3552020294659641</v>
       </c>
       <c r="M25">
-        <v>1.097659930101088</v>
+        <v>0.3244835363623793</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.06154892467370132</v>
       </c>
       <c r="O25">
-        <v>0.4489423970374204</v>
+        <v>1.154359171422414</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.4622816980507451</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
